--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_25_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_25_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="331">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="334">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -94,922 +94,931 @@
     <t>0.001+/-0.0</t>
   </si>
   <si>
-    <t>0.994+/-0.0</t>
-  </si>
-  <si>
-    <t>0.796+/-0.0</t>
-  </si>
-  <si>
-    <t>0.616</t>
-  </si>
-  <si>
-    <t>0.989+/-0.0</t>
-  </si>
-  <si>
-    <t>0.719+/-0.013</t>
-  </si>
-  <si>
-    <t>0.283</t>
+    <t>0.993+/-0.005</t>
+  </si>
+  <si>
+    <t>0.789+/-0.0</t>
+  </si>
+  <si>
+    <t>0.613</t>
+  </si>
+  <si>
+    <t>0.99+/-0.003</t>
+  </si>
+  <si>
+    <t>0.714+/-0.013</t>
+  </si>
+  <si>
+    <t>0.284</t>
+  </si>
+  <si>
+    <t>0.996+/-0.013</t>
+  </si>
+  <si>
+    <t>0.965+/-0.017</t>
+  </si>
+  <si>
+    <t>0.605</t>
+  </si>
+  <si>
+    <t>0.003+/-0.0</t>
+  </si>
+  <si>
+    <t>0.645+/-0.002</t>
+  </si>
+  <si>
+    <t>0.642+/-0.0</t>
+  </si>
+  <si>
+    <t>0.595</t>
+  </si>
+  <si>
+    <t>0.635+/-0.002</t>
+  </si>
+  <si>
+    <t>0.632+/-0.006</t>
+  </si>
+  <si>
+    <t>0.277</t>
+  </si>
+  <si>
+    <t>0.682+/-0.002</t>
+  </si>
+  <si>
+    <t>0.68+/-0.017</t>
+  </si>
+  <si>
+    <t>0.629</t>
+  </si>
+  <si>
+    <t>0.309+/-0.019</t>
+  </si>
+  <si>
+    <t>0.578+/-0.001</t>
+  </si>
+  <si>
+    <t>0.578+/-0.0</t>
+  </si>
+  <si>
+    <t>0.434</t>
+  </si>
+  <si>
+    <t>0.554+/-0.001</t>
+  </si>
+  <si>
+    <t>0.554+/-0.006</t>
+  </si>
+  <si>
+    <t>0.226</t>
+  </si>
+  <si>
+    <t>0.804+/-0.005</t>
+  </si>
+  <si>
+    <t>0.804+/-0.01</t>
+  </si>
+  <si>
+    <t>0.747</t>
+  </si>
+  <si>
+    <t>0.008+/-0.001</t>
+  </si>
+  <si>
+    <t>0.6+/-0.002</t>
+  </si>
+  <si>
+    <t>0.599+/-0.0</t>
+  </si>
+  <si>
+    <t>0.533</t>
+  </si>
+  <si>
+    <t>0.586+/-0.001</t>
+  </si>
+  <si>
+    <t>0.586+/-0.012</t>
+  </si>
+  <si>
+    <t>0.242</t>
+  </si>
+  <si>
+    <t>0.677+/-0.003</t>
+  </si>
+  <si>
+    <t>0.677+/-0.018</t>
+  </si>
+  <si>
+    <t>0.619</t>
+  </si>
+  <si>
+    <t>0.01+/-0.001</t>
+  </si>
+  <si>
+    <t>0.806+/-0.009</t>
+  </si>
+  <si>
+    <t>0.747+/-0.0</t>
+  </si>
+  <si>
+    <t>0.671</t>
+  </si>
+  <si>
+    <t>0.786+/-0.018</t>
+  </si>
+  <si>
+    <t>0.727+/-0.018</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.843+/-0.041</t>
+  </si>
+  <si>
+    <t>0.793+/-0.044</t>
+  </si>
+  <si>
+    <t>0.435</t>
+  </si>
+  <si>
+    <t>6.271+/-1.554</t>
+  </si>
+  <si>
+    <t>0.75+/-0.012</t>
+  </si>
+  <si>
+    <t>0.701+/-0.0</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.729+/-0.04</t>
+  </si>
+  <si>
+    <t>0.683+/-0.032</t>
+  </si>
+  <si>
+    <t>0.252</t>
+  </si>
+  <si>
+    <t>0.81+/-0.09</t>
+  </si>
+  <si>
+    <t>0.762+/-0.088</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>0.186+/-0.004</t>
+  </si>
+  <si>
+    <t>0.731+/-0.01</t>
+  </si>
+  <si>
+    <t>0.693+/-0.0</t>
+  </si>
+  <si>
+    <t>0.656</t>
+  </si>
+  <si>
+    <t>0.722+/-0.036</t>
+  </si>
+  <si>
+    <t>0.684+/-0.032</t>
+  </si>
+  <si>
+    <t>0.279</t>
+  </si>
+  <si>
+    <t>0.768+/-0.103</t>
+  </si>
+  <si>
+    <t>0.734+/-0.092</t>
+  </si>
+  <si>
+    <t>0.445</t>
+  </si>
+  <si>
+    <t>0.273+/-0.003</t>
+  </si>
+  <si>
+    <t>0.731+/-0.002</t>
+  </si>
+  <si>
+    <t>0.707+/-0.0</t>
+  </si>
+  <si>
+    <t>0.63</t>
+  </si>
+  <si>
+    <t>0.704+/-0.002</t>
+  </si>
+  <si>
+    <t>0.682+/-0.012</t>
+  </si>
+  <si>
+    <t>0.301</t>
+  </si>
+  <si>
+    <t>0.798+/-0.004</t>
+  </si>
+  <si>
+    <t>0.776+/-0.012</t>
+  </si>
+  <si>
+    <t>53.113+/-2.923</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.992+/-0.006</t>
+  </si>
+  <si>
+    <t>0.806+/-0.0</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.727+/-0.011</t>
+  </si>
+  <si>
+    <t>0.202</t>
+  </si>
+  <si>
+    <t>0.995+/-0.015</t>
+  </si>
+  <si>
+    <t>0.982+/-0.013</t>
+  </si>
+  <si>
+    <t>0.548</t>
+  </si>
+  <si>
+    <t>0.65+/-0.002</t>
+  </si>
+  <si>
+    <t>0.646+/-0.0</t>
+  </si>
+  <si>
+    <t>0.618</t>
+  </si>
+  <si>
+    <t>0.646+/-0.001</t>
+  </si>
+  <si>
+    <t>0.642+/-0.011</t>
+  </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t>0.662+/-0.004</t>
+  </si>
+  <si>
+    <t>0.661+/-0.026</t>
+  </si>
+  <si>
+    <t>0.631</t>
+  </si>
+  <si>
+    <t>0.393+/-0.031</t>
+  </si>
+  <si>
+    <t>0.585+/-0.002</t>
+  </si>
+  <si>
+    <t>0.583+/-0.0</t>
+  </si>
+  <si>
+    <t>0.442</t>
+  </si>
+  <si>
+    <t>0.561+/-0.002</t>
+  </si>
+  <si>
+    <t>0.56+/-0.008</t>
+  </si>
+  <si>
+    <t>0.175</t>
+  </si>
+  <si>
+    <t>0.776+/-0.006</t>
+  </si>
+  <si>
+    <t>0.774+/-0.019</t>
+  </si>
+  <si>
+    <t>0.731</t>
+  </si>
+  <si>
+    <t>0.009+/-0.001</t>
+  </si>
+  <si>
+    <t>0.603+/-0.001</t>
+  </si>
+  <si>
+    <t>0.603+/-0.0</t>
+  </si>
+  <si>
+    <t>0.544</t>
+  </si>
+  <si>
+    <t>0.59+/-0.001</t>
+  </si>
+  <si>
+    <t>0.59+/-0.014</t>
+  </si>
+  <si>
+    <t>0.191</t>
+  </si>
+  <si>
+    <t>0.676+/-0.002</t>
+  </si>
+  <si>
+    <t>0.676+/-0.019</t>
+  </si>
+  <si>
+    <t>0.011+/-0.001</t>
+  </si>
+  <si>
+    <t>0.825+/-0.009</t>
+  </si>
+  <si>
+    <t>0.77+/-0.0</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.796+/-0.019</t>
+  </si>
+  <si>
+    <t>0.739+/-0.017</t>
+  </si>
+  <si>
+    <t>0.236</t>
+  </si>
+  <si>
+    <t>0.876+/-0.027</t>
+  </si>
+  <si>
+    <t>0.836+/-0.028</t>
+  </si>
+  <si>
+    <t>0.502</t>
+  </si>
+  <si>
+    <t>7.107+/-1.338</t>
+  </si>
+  <si>
+    <t>0.781+/-0.005</t>
+  </si>
+  <si>
+    <t>0.737+/-0.0</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.751+/-0.023</t>
+  </si>
+  <si>
+    <t>0.709+/-0.021</t>
+  </si>
+  <si>
+    <t>0.845+/-0.053</t>
+  </si>
+  <si>
+    <t>0.81+/-0.059</t>
+  </si>
+  <si>
+    <t>0.513</t>
+  </si>
+  <si>
+    <t>0.169+/-0.011</t>
+  </si>
+  <si>
+    <t>0.768+/-0.006</t>
+  </si>
+  <si>
+    <t>0.729+/-0.0</t>
+  </si>
+  <si>
+    <t>0.608</t>
+  </si>
+  <si>
+    <t>0.746+/-0.045</t>
+  </si>
+  <si>
+    <t>0.709+/-0.039</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.827+/-0.079</t>
+  </si>
+  <si>
+    <t>0.792+/-0.082</t>
+  </si>
+  <si>
+    <t>0.538</t>
+  </si>
+  <si>
+    <t>0.243+/-0.008</t>
+  </si>
+  <si>
+    <t>0.744+/-0.002</t>
+  </si>
+  <si>
+    <t>0.726+/-0.0</t>
+  </si>
+  <si>
+    <t>0.648</t>
+  </si>
+  <si>
+    <t>0.726+/-0.002</t>
+  </si>
+  <si>
+    <t>0.71+/-0.009</t>
+  </si>
+  <si>
+    <t>0.784+/-0.003</t>
+  </si>
+  <si>
+    <t>0.765+/-0.016</t>
+  </si>
+  <si>
+    <t>0.552</t>
+  </si>
+  <si>
+    <t>50.882+/-4.72</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.15+/-0.229</t>
+  </si>
+  <si>
+    <t>0.3+/-0.458</t>
+  </si>
+  <si>
+    <t>0.995+/-0.0</t>
+  </si>
+  <si>
+    <t>0.716+/-0.0</t>
+  </si>
+  <si>
+    <t>0.539</t>
   </si>
   <si>
     <t>1.0+/-0.0</t>
   </si>
   <si>
-    <t>0.972+/-0.007</t>
-  </si>
-  <si>
-    <t>0.589</t>
-  </si>
-  <si>
-    <t>0.004+/-0.001</t>
-  </si>
-  <si>
-    <t>0.644+/-0.002</t>
-  </si>
-  <si>
-    <t>0.642+/-0.0</t>
-  </si>
-  <si>
-    <t>0.597</t>
-  </si>
-  <si>
-    <t>0.634+/-0.002</t>
-  </si>
-  <si>
-    <t>0.632+/-0.008</t>
-  </si>
-  <si>
-    <t>0.282</t>
-  </si>
-  <si>
-    <t>0.681+/-0.002</t>
-  </si>
-  <si>
-    <t>0.679+/-0.018</t>
-  </si>
-  <si>
-    <t>0.643</t>
-  </si>
-  <si>
-    <t>0.358+/-0.026</t>
-  </si>
-  <si>
-    <t>0.579+/-0.002</t>
-  </si>
-  <si>
-    <t>0.579+/-0.0</t>
-  </si>
-  <si>
-    <t>0.432</t>
-  </si>
-  <si>
-    <t>0.554+/-0.002</t>
-  </si>
-  <si>
-    <t>0.555+/-0.008</t>
-  </si>
-  <si>
-    <t>0.227</t>
-  </si>
-  <si>
-    <t>0.803+/-0.005</t>
-  </si>
-  <si>
-    <t>0.805+/-0.016</t>
-  </si>
-  <si>
-    <t>0.755</t>
-  </si>
-  <si>
-    <t>0.01+/-0.005</t>
-  </si>
-  <si>
-    <t>0.598+/-0.001</t>
-  </si>
-  <si>
-    <t>0.598+/-0.0</t>
-  </si>
-  <si>
-    <t>0.531</t>
-  </si>
-  <si>
-    <t>0.585+/-0.001</t>
-  </si>
-  <si>
-    <t>0.585+/-0.011</t>
-  </si>
-  <si>
-    <t>0.241</t>
-  </si>
-  <si>
-    <t>0.674+/-0.002</t>
-  </si>
-  <si>
-    <t>0.674+/-0.019</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.011+/-0.002</t>
-  </si>
-  <si>
-    <t>0.806+/-0.009</t>
-  </si>
-  <si>
-    <t>0.744+/-0.0</t>
-  </si>
-  <si>
-    <t>0.658</t>
-  </si>
-  <si>
-    <t>0.785+/-0.011</t>
-  </si>
-  <si>
-    <t>0.723+/-0.019</t>
-  </si>
-  <si>
-    <t>0.301</t>
-  </si>
-  <si>
-    <t>0.845+/-0.023</t>
-  </si>
-  <si>
-    <t>0.79+/-0.034</t>
-  </si>
-  <si>
-    <t>0.528</t>
-  </si>
-  <si>
-    <t>6.498+/-2.256</t>
-  </si>
-  <si>
-    <t>0.767+/-0.01</t>
-  </si>
-  <si>
-    <t>0.706+/-0.0</t>
-  </si>
-  <si>
-    <t>0.626</t>
-  </si>
-  <si>
-    <t>0.755+/-0.02</t>
-  </si>
-  <si>
-    <t>0.696+/-0.016</t>
-  </si>
-  <si>
-    <t>0.289</t>
-  </si>
-  <si>
-    <t>0.792+/-0.06</t>
-  </si>
-  <si>
-    <t>0.735+/-0.058</t>
-  </si>
-  <si>
-    <t>0.584</t>
-  </si>
-  <si>
-    <t>0.156+/-0.016</t>
-  </si>
-  <si>
-    <t>0.742+/-0.004</t>
-  </si>
-  <si>
-    <t>0.7+/-0.0</t>
-  </si>
-  <si>
-    <t>0.685</t>
-  </si>
-  <si>
-    <t>0.729+/-0.023</t>
-  </si>
-  <si>
-    <t>0.688+/-0.025</t>
-  </si>
-  <si>
-    <t>0.311</t>
-  </si>
-  <si>
-    <t>0.774+/-0.058</t>
-  </si>
-  <si>
-    <t>0.735+/-0.057</t>
-  </si>
-  <si>
-    <t>0.464</t>
-  </si>
-  <si>
-    <t>0.248+/-0.017</t>
-  </si>
-  <si>
-    <t>0.735+/-0.002</t>
-  </si>
-  <si>
-    <t>0.715+/-0.0</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.708+/-0.002</t>
-  </si>
-  <si>
-    <t>0.689+/-0.01</t>
-  </si>
-  <si>
-    <t>0.3</t>
-  </si>
-  <si>
-    <t>0.802+/-0.003</t>
-  </si>
-  <si>
-    <t>0.783+/-0.014</t>
-  </si>
-  <si>
-    <t>0.627</t>
-  </si>
-  <si>
-    <t>55.445+/-4.352</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.806+/-0.0</t>
-  </si>
-  <si>
-    <t>0.605</t>
-  </si>
-  <si>
-    <t>0.988+/-0.0</t>
-  </si>
-  <si>
-    <t>0.724+/-0.007</t>
-  </si>
-  <si>
-    <t>0.215</t>
-  </si>
-  <si>
-    <t>0.988+/-0.005</t>
+    <t>0.656+/-0.007</t>
+  </si>
+  <si>
+    <t>0.309</t>
+  </si>
+  <si>
+    <t>0.989+/-0.001</t>
+  </si>
+  <si>
+    <t>0.908+/-0.011</t>
+  </si>
+  <si>
+    <t>0.583+/-0.002</t>
+  </si>
+  <si>
+    <t>0.576+/-0.0</t>
+  </si>
+  <si>
+    <t>0.604</t>
+  </si>
+  <si>
+    <t>0.593+/-0.002</t>
+  </si>
+  <si>
+    <t>0.585+/-0.012</t>
+  </si>
+  <si>
+    <t>0.354</t>
+  </si>
+  <si>
+    <t>0.527+/-0.003</t>
+  </si>
+  <si>
+    <t>0.522+/-0.022</t>
+  </si>
+  <si>
+    <t>0.522</t>
+  </si>
+  <si>
+    <t>0.222+/-0.015</t>
+  </si>
+  <si>
+    <t>0.56+/-0.001</t>
+  </si>
+  <si>
+    <t>0.559+/-0.0</t>
+  </si>
+  <si>
+    <t>0.662</t>
+  </si>
+  <si>
+    <t>0.609+/-0.003</t>
+  </si>
+  <si>
+    <t>0.608+/-0.015</t>
+  </si>
+  <si>
+    <t>0.376</t>
+  </si>
+  <si>
+    <t>0.336+/-0.008</t>
+  </si>
+  <si>
+    <t>0.335+/-0.018</t>
+  </si>
+  <si>
+    <t>0.332</t>
+  </si>
+  <si>
+    <t>0.008+/-0.0</t>
+  </si>
+  <si>
+    <t>0.564+/-0.002</t>
+  </si>
+  <si>
+    <t>0.562+/-0.0</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.572+/-0.003</t>
+  </si>
+  <si>
+    <t>0.57+/-0.011</t>
+  </si>
+  <si>
+    <t>0.342</t>
+  </si>
+  <si>
+    <t>0.513+/-0.004</t>
+  </si>
+  <si>
+    <t>0.512+/-0.019</t>
+  </si>
+  <si>
+    <t>0.515</t>
+  </si>
+  <si>
+    <t>0.727+/-0.01</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>0.713+/-0.026</t>
+  </si>
+  <si>
+    <t>0.633+/-0.024</t>
+  </si>
+  <si>
+    <t>0.353</t>
+  </si>
+  <si>
+    <t>0.767+/-0.053</t>
+  </si>
+  <si>
+    <t>0.686+/-0.059</t>
+  </si>
+  <si>
+    <t>0.381</t>
+  </si>
+  <si>
+    <t>5.542+/-0.911</t>
+  </si>
+  <si>
+    <t>0.759+/-0.005</t>
+  </si>
+  <si>
+    <t>0.676+/-0.0</t>
+  </si>
+  <si>
+    <t>0.622</t>
+  </si>
+  <si>
+    <t>0.784+/-0.021</t>
+  </si>
+  <si>
+    <t>0.693+/-0.027</t>
+  </si>
+  <si>
+    <t>0.344</t>
+  </si>
+  <si>
+    <t>0.718+/-0.032</t>
+  </si>
+  <si>
+    <t>0.637+/-0.032</t>
+  </si>
+  <si>
+    <t>0.402</t>
+  </si>
+  <si>
+    <t>0.147+/-0.008</t>
+  </si>
+  <si>
+    <t>0.74+/-0.009</t>
+  </si>
+  <si>
+    <t>0.67+/-0.0</t>
+  </si>
+  <si>
+    <t>0.757+/-0.017</t>
+  </si>
+  <si>
+    <t>0.684+/-0.022</t>
+  </si>
+  <si>
+    <t>0.33</t>
+  </si>
+  <si>
+    <t>0.709+/-0.03</t>
+  </si>
+  <si>
+    <t>0.636+/-0.03</t>
+  </si>
+  <si>
+    <t>0.406</t>
+  </si>
+  <si>
+    <t>0.199+/-0.006</t>
+  </si>
+  <si>
+    <t>0.667+/-0.002</t>
+  </si>
+  <si>
+    <t>0.622+/-0.0</t>
+  </si>
+  <si>
+    <t>0.58</t>
+  </si>
+  <si>
+    <t>0.661+/-0.002</t>
+  </si>
+  <si>
+    <t>0.617+/-0.014</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.688+/-0.009</t>
+  </si>
+  <si>
+    <t>0.642+/-0.026</t>
+  </si>
+  <si>
+    <t>0.524</t>
+  </si>
+  <si>
+    <t>42.725+/-2.699</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.25+/-0.25</t>
+  </si>
+  <si>
+    <t>0.5+/-0.5</t>
+  </si>
+  <si>
+    <t>0.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.994+/-0.002</t>
+  </si>
+  <si>
+    <t>0.694+/-0.0</t>
+  </si>
+  <si>
+    <t>0.996+/-0.008</t>
+  </si>
+  <si>
+    <t>0.641+/-0.009</t>
+  </si>
+  <si>
+    <t>0.338</t>
+  </si>
+  <si>
+    <t>0.992+/-0.004</t>
+  </si>
+  <si>
+    <t>0.886+/-0.011</t>
+  </si>
+  <si>
+    <t>0.565+/-0.001</t>
+  </si>
+  <si>
+    <t>0.575</t>
+  </si>
+  <si>
+    <t>0.573+/-0.002</t>
+  </si>
+  <si>
+    <t>0.57+/-0.012</t>
+  </si>
+  <si>
+    <t>0.362</t>
+  </si>
+  <si>
+    <t>0.51+/-0.003</t>
+  </si>
+  <si>
+    <t>0.51+/-0.023</t>
+  </si>
+  <si>
+    <t>0.496</t>
+  </si>
+  <si>
+    <t>0.119+/-0.023</t>
+  </si>
+  <si>
+    <t>0.553+/-0.002</t>
+  </si>
+  <si>
+    <t>0.549+/-0.0</t>
+  </si>
+  <si>
+    <t>0.592</t>
+  </si>
+  <si>
+    <t>0.565+/-0.003</t>
+  </si>
+  <si>
+    <t>0.56+/-0.016</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
+    <t>0.465+/-0.018</t>
+  </si>
+  <si>
+    <t>0.461+/-0.027</t>
+  </si>
+  <si>
+    <t>0.457</t>
+  </si>
+  <si>
+    <t>0.007+/-0.0</t>
+  </si>
+  <si>
+    <t>0.554+/-0.0</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>0.56+/-0.002</t>
+  </si>
+  <si>
+    <t>0.56+/-0.02</t>
+  </si>
+  <si>
+    <t>0.367</t>
+  </si>
+  <si>
+    <t>0.505+/-0.002</t>
+  </si>
+  <si>
+    <t>0.503+/-0.023</t>
+  </si>
+  <si>
+    <t>0.504</t>
+  </si>
+  <si>
+    <t>0.702+/-0.007</t>
+  </si>
+  <si>
+    <t>0.618+/-0.0</t>
+  </si>
+  <si>
+    <t>0.567</t>
+  </si>
+  <si>
+    <t>0.696+/-0.021</t>
+  </si>
+  <si>
+    <t>0.614+/-0.017</t>
+  </si>
+  <si>
+    <t>0.349</t>
+  </si>
+  <si>
+    <t>0.722+/-0.06</t>
+  </si>
+  <si>
+    <t>0.641+/-0.056</t>
+  </si>
+  <si>
+    <t>0.468</t>
+  </si>
+  <si>
+    <t>4.659+/-0.652</t>
+  </si>
+  <si>
+    <t>0.743+/-0.007</t>
+  </si>
+  <si>
+    <t>0.653+/-0.0</t>
+  </si>
+  <si>
+    <t>0.568</t>
+  </si>
+  <si>
+    <t>0.738+/-0.017</t>
+  </si>
+  <si>
+    <t>0.65+/-0.016</t>
+  </si>
+  <si>
+    <t>0.757+/-0.034</t>
+  </si>
+  <si>
+    <t>0.664+/-0.033</t>
+  </si>
+  <si>
+    <t>0.422</t>
+  </si>
+  <si>
+    <t>0.103+/-0.009</t>
+  </si>
+  <si>
+    <t>0.721+/-0.005</t>
+  </si>
+  <si>
+    <t>0.649+/-0.0</t>
+  </si>
+  <si>
+    <t>0.569</t>
+  </si>
+  <si>
+    <t>0.713+/-0.016</t>
+  </si>
+  <si>
+    <t>0.645+/-0.024</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.744+/-0.032</t>
+  </si>
+  <si>
+    <t>0.672+/-0.027</t>
+  </si>
+  <si>
+    <t>0.139+/-0.007</t>
   </si>
   <si>
     <t>0.652+/-0.001</t>
   </si>
   <si>
-    <t>0.65+/-0.0</t>
-  </si>
-  <si>
-    <t>0.618</t>
-  </si>
-  <si>
-    <t>0.647+/-0.001</t>
-  </si>
-  <si>
-    <t>0.645+/-0.013</t>
-  </si>
-  <si>
-    <t>0.223</t>
-  </si>
-  <si>
-    <t>0.668+/-0.004</t>
-  </si>
-  <si>
-    <t>0.666+/-0.019</t>
-  </si>
-  <si>
-    <t>0.624</t>
-  </si>
-  <si>
-    <t>0.378+/-0.101</t>
-  </si>
-  <si>
-    <t>0.589+/-0.002</t>
-  </si>
-  <si>
-    <t>0.589+/-0.0</t>
-  </si>
-  <si>
-    <t>0.461</t>
-  </si>
-  <si>
-    <t>0.567+/-0.002</t>
-  </si>
-  <si>
-    <t>0.567+/-0.01</t>
-  </si>
-  <si>
-    <t>0.175</t>
-  </si>
-  <si>
-    <t>0.749+/-0.007</t>
-  </si>
-  <si>
-    <t>0.749+/-0.016</t>
-  </si>
-  <si>
-    <t>0.695</t>
-  </si>
-  <si>
-    <t>0.009+/-0.001</t>
-  </si>
-  <si>
-    <t>0.605+/-0.002</t>
-  </si>
-  <si>
-    <t>0.604+/-0.0</t>
-  </si>
-  <si>
-    <t>0.54</t>
-  </si>
-  <si>
-    <t>0.591+/-0.001</t>
-  </si>
-  <si>
-    <t>0.591+/-0.013</t>
-  </si>
-  <si>
-    <t>0.189</t>
-  </si>
-  <si>
-    <t>0.681+/-0.001</t>
-  </si>
-  <si>
-    <t>0.68+/-0.012</t>
-  </si>
-  <si>
-    <t>0.011+/-0.001</t>
-  </si>
-  <si>
-    <t>0.833+/-0.008</t>
-  </si>
-  <si>
-    <t>0.783+/-0.0</t>
-  </si>
-  <si>
-    <t>0.673</t>
-  </si>
-  <si>
-    <t>0.807+/-0.012</t>
-  </si>
-  <si>
-    <t>0.758+/-0.015</t>
-  </si>
-  <si>
-    <t>0.229</t>
-  </si>
-  <si>
-    <t>0.876+/-0.022</t>
-  </si>
-  <si>
-    <t>0.832+/-0.03</t>
-  </si>
-  <si>
-    <t>0.498</t>
-  </si>
-  <si>
-    <t>5.633+/-0.602</t>
-  </si>
-  <si>
-    <t>0.82+/-0.01</t>
-  </si>
-  <si>
-    <t>0.77+/-0.0</t>
-  </si>
-  <si>
-    <t>0.737</t>
-  </si>
-  <si>
-    <t>0.833+/-0.03</t>
-  </si>
-  <si>
-    <t>0.78+/-0.032</t>
-  </si>
-  <si>
-    <t>0.234</t>
-  </si>
-  <si>
-    <t>0.807+/-0.065</t>
-  </si>
-  <si>
-    <t>0.758+/-0.057</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.18+/-0.012</t>
-  </si>
-  <si>
-    <t>0.804+/-0.007</t>
-  </si>
-  <si>
-    <t>0.76+/-0.0</t>
-  </si>
-  <si>
-    <t>0.738</t>
-  </si>
-  <si>
-    <t>0.832+/-0.033</t>
-  </si>
-  <si>
-    <t>0.785+/-0.025</t>
-  </si>
-  <si>
-    <t>0.768+/-0.06</t>
-  </si>
-  <si>
-    <t>0.72+/-0.066</t>
-  </si>
-  <si>
-    <t>0.315</t>
-  </si>
-  <si>
-    <t>0.285+/-0.005</t>
-  </si>
-  <si>
-    <t>0.749+/-0.002</t>
-  </si>
-  <si>
-    <t>0.727+/-0.0</t>
-  </si>
-  <si>
-    <t>0.671</t>
-  </si>
-  <si>
-    <t>0.733+/-0.003</t>
-  </si>
-  <si>
-    <t>0.711+/-0.014</t>
-  </si>
-  <si>
-    <t>0.247</t>
-  </si>
-  <si>
-    <t>0.785+/-0.003</t>
-  </si>
-  <si>
-    <t>0.765+/-0.019</t>
-  </si>
-  <si>
-    <t>50.39+/-4.802</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.995+/-0.0</t>
-  </si>
-  <si>
-    <t>0.718+/-0.0</t>
-  </si>
-  <si>
-    <t>0.556</t>
-  </si>
-  <si>
-    <t>0.656+/-0.006</t>
-  </si>
-  <si>
-    <t>0.326</t>
-  </si>
-  <si>
-    <t>0.99+/-0.0</t>
-  </si>
-  <si>
-    <t>0.913+/-0.01</t>
-  </si>
-  <si>
-    <t>0.565</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.582+/-0.001</t>
-  </si>
-  <si>
-    <t>0.578+/-0.0</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>0.594+/-0.001</t>
-  </si>
-  <si>
-    <t>0.589+/-0.012</t>
-  </si>
-  <si>
-    <t>0.352</t>
-  </si>
-  <si>
-    <t>0.518+/-0.004</t>
-  </si>
-  <si>
-    <t>0.514+/-0.019</t>
-  </si>
-  <si>
-    <t>0.511</t>
-  </si>
-  <si>
-    <t>0.185+/-0.019</t>
-  </si>
-  <si>
-    <t>0.557+/-0.002</t>
-  </si>
-  <si>
-    <t>0.556+/-0.0</t>
-  </si>
-  <si>
-    <t>0.668</t>
-  </si>
-  <si>
-    <t>0.609+/-0.003</t>
-  </si>
-  <si>
-    <t>0.607+/-0.021</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>0.32+/-0.01</t>
-  </si>
-  <si>
-    <t>0.318+/-0.018</t>
-  </si>
-  <si>
-    <t>0.318</t>
-  </si>
-  <si>
-    <t>0.007+/-0.0</t>
-  </si>
-  <si>
-    <t>0.56+/-0.002</t>
-  </si>
-  <si>
-    <t>0.56+/-0.0</t>
-  </si>
-  <si>
-    <t>0.588</t>
-  </si>
-  <si>
-    <t>0.567+/-0.014</t>
-  </si>
-  <si>
-    <t>0.339</t>
-  </si>
-  <si>
-    <t>0.508+/-0.002</t>
-  </si>
-  <si>
-    <t>0.506+/-0.01</t>
-  </si>
-  <si>
-    <t>0.515</t>
-  </si>
-  <si>
-    <t>0.725+/-0.012</t>
-  </si>
-  <si>
-    <t>0.639+/-0.0</t>
-  </si>
-  <si>
-    <t>0.587</t>
-  </si>
-  <si>
-    <t>0.702+/-0.023</t>
-  </si>
-  <si>
-    <t>0.624+/-0.024</t>
-  </si>
-  <si>
-    <t>0.324</t>
-  </si>
-  <si>
-    <t>0.786+/-0.045</t>
-  </si>
-  <si>
-    <t>0.707+/-0.047</t>
-  </si>
-  <si>
-    <t>0.45</t>
-  </si>
-  <si>
-    <t>5.784+/-0.941</t>
-  </si>
-  <si>
-    <t>0.734+/-0.005</t>
-  </si>
-  <si>
-    <t>0.654+/-0.0</t>
-  </si>
-  <si>
-    <t>0.637</t>
-  </si>
-  <si>
-    <t>0.753+/-0.022</t>
-  </si>
-  <si>
-    <t>0.666+/-0.021</t>
-  </si>
-  <si>
-    <t>0.347</t>
-  </si>
-  <si>
-    <t>0.701+/-0.047</t>
-  </si>
-  <si>
-    <t>0.621+/-0.049</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.122+/-0.013</t>
-  </si>
-  <si>
-    <t>0.716+/-0.005</t>
-  </si>
-  <si>
-    <t>0.655+/-0.0</t>
-  </si>
-  <si>
-    <t>0.644</t>
-  </si>
-  <si>
-    <t>0.723+/-0.021</t>
-  </si>
-  <si>
-    <t>0.659+/-0.018</t>
-  </si>
-  <si>
-    <t>0.358</t>
-  </si>
-  <si>
-    <t>0.703+/-0.037</t>
-  </si>
-  <si>
-    <t>0.646+/-0.041</t>
-  </si>
-  <si>
-    <t>0.363</t>
-  </si>
-  <si>
-    <t>0.171+/-0.008</t>
-  </si>
-  <si>
-    <t>0.657+/-0.003</t>
-  </si>
-  <si>
-    <t>0.621+/-0.0</t>
-  </si>
-  <si>
-    <t>0.608</t>
-  </si>
-  <si>
-    <t>0.66+/-0.004</t>
-  </si>
-  <si>
-    <t>0.623+/-0.012</t>
-  </si>
-  <si>
-    <t>0.355</t>
-  </si>
-  <si>
-    <t>0.647+/-0.008</t>
-  </si>
-  <si>
-    <t>0.613+/-0.017</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>40.555+/-3.161</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.702+/-0.0</t>
-  </si>
-  <si>
-    <t>0.648+/-0.012</t>
-  </si>
-  <si>
-    <t>0.344</t>
-  </si>
-  <si>
-    <t>0.882+/-0.005</t>
-  </si>
-  <si>
-    <t>0.545</t>
-  </si>
-  <si>
-    <t>0.564+/-0.002</t>
-  </si>
-  <si>
-    <t>0.574</t>
-  </si>
-  <si>
-    <t>0.571+/-0.002</t>
-  </si>
-  <si>
-    <t>0.568+/-0.018</t>
-  </si>
-  <si>
-    <t>0.359</t>
-  </si>
-  <si>
-    <t>0.511+/-0.004</t>
-  </si>
-  <si>
-    <t>0.507+/-0.011</t>
-  </si>
-  <si>
-    <t>0.489</t>
-  </si>
-  <si>
-    <t>0.167+/-0.021</t>
-  </si>
-  <si>
-    <t>0.548+/-0.002</t>
-  </si>
-  <si>
-    <t>0.548+/-0.0</t>
-  </si>
-  <si>
-    <t>0.596</t>
-  </si>
-  <si>
-    <t>0.565+/-0.019</t>
-  </si>
-  <si>
-    <t>0.417+/-0.017</t>
-  </si>
-  <si>
-    <t>0.416+/-0.022</t>
-  </si>
-  <si>
-    <t>0.41</t>
-  </si>
-  <si>
-    <t>0.006+/-0.001</t>
-  </si>
-  <si>
-    <t>0.55+/-0.002</t>
-  </si>
-  <si>
-    <t>0.549+/-0.0</t>
-  </si>
-  <si>
-    <t>0.571</t>
-  </si>
-  <si>
-    <t>0.555+/-0.002</t>
-  </si>
-  <si>
-    <t>0.554+/-0.017</t>
-  </si>
-  <si>
-    <t>0.496+/-0.003</t>
-  </si>
-  <si>
-    <t>0.495+/-0.023</t>
-  </si>
-  <si>
-    <t>0.499</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.708+/-0.009</t>
-  </si>
-  <si>
-    <t>0.629+/-0.0</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>0.7+/-0.017</t>
-  </si>
-  <si>
-    <t>0.623+/-0.015</t>
-  </si>
-  <si>
-    <t>0.368</t>
-  </si>
-  <si>
-    <t>0.732+/-0.046</t>
-  </si>
-  <si>
-    <t>0.655+/-0.049</t>
-  </si>
-  <si>
-    <t>0.436</t>
-  </si>
-  <si>
-    <t>4.984+/-1.263</t>
-  </si>
-  <si>
-    <t>0.739+/-0.009</t>
-  </si>
-  <si>
-    <t>0.653+/-0.0</t>
-  </si>
-  <si>
-    <t>0.577</t>
-  </si>
-  <si>
-    <t>0.75+/-0.019</t>
-  </si>
-  <si>
-    <t>0.661+/-0.025</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>0.719+/-0.041</t>
-  </si>
-  <si>
-    <t>0.63+/-0.042</t>
-  </si>
-  <si>
-    <t>0.131+/-0.004</t>
-  </si>
-  <si>
-    <t>0.718+/-0.004</t>
-  </si>
-  <si>
-    <t>0.648+/-0.0</t>
-  </si>
-  <si>
-    <t>0.736+/-0.013</t>
-  </si>
-  <si>
-    <t>0.661+/-0.023</t>
-  </si>
-  <si>
-    <t>0.336</t>
-  </si>
-  <si>
-    <t>0.681+/-0.029</t>
-  </si>
-  <si>
-    <t>0.609+/-0.036</t>
-  </si>
-  <si>
-    <t>0.316</t>
-  </si>
-  <si>
-    <t>0.193+/-0.006</t>
-  </si>
-  <si>
-    <t>0.658+/-0.003</t>
-  </si>
-  <si>
-    <t>0.612+/-0.0</t>
-  </si>
-  <si>
-    <t>0.651+/-0.003</t>
-  </si>
-  <si>
-    <t>0.607+/-0.02</t>
-  </si>
-  <si>
-    <t>0.382</t>
-  </si>
-  <si>
-    <t>0.68+/-0.008</t>
-  </si>
-  <si>
-    <t>0.637+/-0.028</t>
-  </si>
-  <si>
-    <t>0.548</t>
-  </si>
-  <si>
-    <t>38.173+/-4.0</t>
+    <t>0.61+/-0.0</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>0.645+/-0.003</t>
+  </si>
+  <si>
+    <t>0.604+/-0.015</t>
+  </si>
+  <si>
+    <t>0.379</t>
+  </si>
+  <si>
+    <t>0.679+/-0.007</t>
+  </si>
+  <si>
+    <t>0.64+/-0.017</t>
+  </si>
+  <si>
+    <t>0.555</t>
+  </si>
+  <si>
+    <t>32.221+/-0.682</t>
   </si>
 </sst>
 </file>
@@ -1687,7 +1696,7 @@
         <v>93</v>
       </c>
       <c r="J10" t="s">
-        <v>103</v>
+        <v>43</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1719,7 +1728,7 @@
         <v>94</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -1772,28 +1781,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>105</v>
       </c>
       <c r="D2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="G2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="H2" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="I2" t="s">
         <v>161</v>
       </c>
       <c r="J2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1807,25 +1816,25 @@
         <v>106</v>
       </c>
       <c r="D3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="G3" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="H3" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="I3" t="s">
         <v>162</v>
       </c>
       <c r="J3" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1833,31 +1842,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C4" t="s">
         <v>107</v>
       </c>
       <c r="D4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F4" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="G4" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="H4" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="I4" t="s">
         <v>163</v>
       </c>
       <c r="J4" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1868,28 +1877,28 @@
         <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>108</v>
+        <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F5" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G5" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="H5" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="I5" t="s">
         <v>164</v>
       </c>
       <c r="J5" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1900,28 +1909,28 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="G6" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="H6" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="I6" t="s">
         <v>165</v>
       </c>
       <c r="J6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1932,28 +1941,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="F7" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="G7" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="H7" t="s">
-        <v>156</v>
+        <v>138</v>
       </c>
       <c r="I7" t="s">
-        <v>146</v>
+        <v>166</v>
       </c>
       <c r="J7" t="s">
-        <v>175</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1964,25 +1973,25 @@
         <v>23</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>110</v>
       </c>
       <c r="D8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="F8" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="G8" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H8" t="s">
         <v>157</v>
       </c>
       <c r="I8" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="J8" t="s">
         <v>176</v>
@@ -1999,22 +2008,22 @@
         <v>111</v>
       </c>
       <c r="D9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="F9" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G9" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H9" t="s">
         <v>158</v>
       </c>
       <c r="I9" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="J9" t="s">
         <v>177</v>
@@ -2028,28 +2037,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>112</v>
       </c>
       <c r="D10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="F10" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="G10" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="H10" t="s">
         <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="J10" t="s">
-        <v>83</v>
+        <v>178</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2063,25 +2072,25 @@
         <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="H11" t="s">
         <v>160</v>
       </c>
       <c r="I11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="J11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -2137,25 +2146,25 @@
         <v>183</v>
       </c>
       <c r="D2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="E2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="F2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G2" t="s">
         <v>220</v>
       </c>
       <c r="H2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="I2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J2" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2169,25 +2178,25 @@
         <v>184</v>
       </c>
       <c r="D3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="E3" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="F3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="G3" t="s">
-        <v>221</v>
+        <v>36</v>
       </c>
       <c r="H3" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="I3" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J3" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2195,31 +2204,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
         <v>185</v>
       </c>
       <c r="D4" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="E4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="F4" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="G4" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H4" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I4" t="s">
-        <v>242</v>
+        <v>163</v>
       </c>
       <c r="J4" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2227,31 +2236,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>186</v>
       </c>
       <c r="D5" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="E5" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="F5" t="s">
-        <v>125</v>
+        <v>214</v>
       </c>
       <c r="G5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="I5" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J5" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2259,31 +2268,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C6" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="F6" t="s">
         <v>215</v>
       </c>
       <c r="G6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="I6" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="J6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2294,28 +2303,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D7" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="E7" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="F7" t="s">
         <v>216</v>
       </c>
       <c r="G7" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="H7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="I7" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="J7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2323,31 +2332,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C8" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D8" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E8" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="F8" t="s">
         <v>217</v>
       </c>
       <c r="G8" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="H8" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="I8" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="J8" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2355,31 +2364,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="C9" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D9" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="E9" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="F9" t="s">
         <v>218</v>
       </c>
       <c r="G9" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="H9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="I9" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="J9" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2390,28 +2399,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>190</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="E10" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="F10" t="s">
         <v>219</v>
       </c>
       <c r="G10" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H10" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I10" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="J10" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2419,31 +2428,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>182</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="F11" t="s">
-        <v>131</v>
+        <v>64</v>
       </c>
       <c r="G11" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I11" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="J11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -2496,28 +2505,28 @@
         <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>262</v>
       </c>
       <c r="D2" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="E2" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F2" t="s">
-        <v>285</v>
+        <v>48</v>
       </c>
       <c r="G2" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="H2" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="I2" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="J2" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2531,25 +2540,25 @@
         <v>263</v>
       </c>
       <c r="D3" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="E3" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="F3" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="G3" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="H3" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="I3" t="s">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="J3" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2557,31 +2566,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="C4" t="s">
-        <v>134</v>
+        <v>57</v>
       </c>
       <c r="D4" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="E4" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="F4" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="G4" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="H4" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="I4" t="s">
-        <v>37</v>
+        <v>317</v>
       </c>
       <c r="J4" t="s">
-        <v>214</v>
+        <v>326</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2589,31 +2598,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>264</v>
       </c>
       <c r="D5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="E5" t="s">
-        <v>268</v>
+        <v>281</v>
       </c>
       <c r="F5" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="G5" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="H5" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I5" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="J5" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2621,31 +2630,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="C6" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="D6" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="E6" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F6" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="G6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="H6" t="s">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="I6" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="J6" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2656,28 +2665,28 @@
         <v>22</v>
       </c>
       <c r="C7" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="D7" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="E7" t="s">
-        <v>248</v>
+        <v>283</v>
       </c>
       <c r="F7" t="s">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="G7" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="H7" t="s">
-        <v>309</v>
+        <v>266</v>
       </c>
       <c r="I7" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="J7" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2685,31 +2694,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>267</v>
       </c>
       <c r="D8" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="E8" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="F8" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="G8" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="H8" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="J8" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2717,31 +2726,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="C9" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D9" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="E9" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F9" t="s">
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="G9" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="H9" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="I9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="J9" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2752,28 +2761,28 @@
         <v>22</v>
       </c>
       <c r="C10" t="s">
-        <v>267</v>
+        <v>169</v>
       </c>
       <c r="D10" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="E10" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="F10" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="G10" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="H10" t="s">
-        <v>299</v>
+        <v>313</v>
       </c>
       <c r="I10" t="s">
-        <v>320</v>
+        <v>276</v>
       </c>
       <c r="J10" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2781,31 +2790,31 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>261</v>
       </c>
       <c r="C11" t="s">
-        <v>191</v>
+        <v>34</v>
       </c>
       <c r="D11" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="E11" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="F11" t="s">
-        <v>293</v>
+        <v>132</v>
       </c>
       <c r="G11" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="H11" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="I11" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="J11" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_25_1_replicas_SMOTE.xlsx
+++ b/Data/Modeling Stage/Results/IMS/Non temporal models/simple_models_no_assign_results_Date_threshold_25_1_replicas_SMOTE.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="429">
   <si>
     <t>Baseline - Majority Class</t>
   </si>
@@ -73,952 +73,1237 @@
     <t>Recall Test</t>
   </si>
   <si>
+    <t>AUC - Train</t>
+  </si>
+  <si>
+    <t>AUC - Validation</t>
+  </si>
+  <si>
+    <t>AUC - Test</t>
+  </si>
+  <si>
     <t>Time</t>
   </si>
   <si>
     <t>0.5+/-0.0</t>
   </si>
   <si>
+    <t>0.799+/-0.0</t>
+  </si>
+  <si>
     <t>0.798</t>
   </si>
   <si>
-    <t>0.05+/-0.15</t>
+    <t>0.0+/-0.0</t>
   </si>
   <si>
     <t>0.0</t>
   </si>
   <si>
-    <t>0.1+/-0.3</t>
+    <t>0.5</t>
   </si>
   <si>
     <t>0.001+/-0.0</t>
   </si>
   <si>
-    <t>0.993+/-0.005</t>
-  </si>
-  <si>
-    <t>0.789+/-0.0</t>
-  </si>
-  <si>
-    <t>0.613</t>
-  </si>
-  <si>
-    <t>0.99+/-0.003</t>
-  </si>
-  <si>
-    <t>0.714+/-0.013</t>
-  </si>
-  <si>
-    <t>0.284</t>
-  </si>
-  <si>
-    <t>0.996+/-0.013</t>
-  </si>
-  <si>
-    <t>0.965+/-0.017</t>
-  </si>
-  <si>
-    <t>0.605</t>
-  </si>
-  <si>
-    <t>0.003+/-0.0</t>
-  </si>
-  <si>
-    <t>0.645+/-0.002</t>
-  </si>
-  <si>
-    <t>0.642+/-0.0</t>
-  </si>
-  <si>
-    <t>0.595</t>
-  </si>
-  <si>
-    <t>0.635+/-0.002</t>
-  </si>
-  <si>
-    <t>0.632+/-0.006</t>
-  </si>
-  <si>
-    <t>0.277</t>
-  </si>
-  <si>
-    <t>0.682+/-0.002</t>
-  </si>
-  <si>
-    <t>0.68+/-0.017</t>
-  </si>
-  <si>
-    <t>0.629</t>
-  </si>
-  <si>
-    <t>0.309+/-0.019</t>
-  </si>
-  <si>
-    <t>0.578+/-0.001</t>
-  </si>
-  <si>
-    <t>0.578+/-0.0</t>
-  </si>
-  <si>
-    <t>0.434</t>
-  </si>
-  <si>
-    <t>0.554+/-0.001</t>
-  </si>
-  <si>
-    <t>0.554+/-0.006</t>
-  </si>
-  <si>
-    <t>0.226</t>
-  </si>
-  <si>
-    <t>0.804+/-0.005</t>
-  </si>
-  <si>
-    <t>0.804+/-0.01</t>
-  </si>
-  <si>
-    <t>0.747</t>
-  </si>
-  <si>
-    <t>0.008+/-0.001</t>
-  </si>
-  <si>
-    <t>0.6+/-0.002</t>
-  </si>
-  <si>
-    <t>0.599+/-0.0</t>
+    <t>0.994+/-0.0</t>
+  </si>
+  <si>
+    <t>0.623+/-0.0</t>
+  </si>
+  <si>
+    <t>0.794</t>
+  </si>
+  <si>
+    <t>0.989+/-0.0</t>
+  </si>
+  <si>
+    <t>0.296+/-0.014</t>
+  </si>
+  <si>
+    <t>0.456</t>
+  </si>
+  <si>
+    <t>1.0+/-0.0</t>
+  </si>
+  <si>
+    <t>0.631+/-0.024</t>
+  </si>
+  <si>
+    <t>0.109</t>
+  </si>
+  <si>
+    <t>0.999+/-0.002</t>
+  </si>
+  <si>
+    <t>0.671+/-0.02</t>
+  </si>
+  <si>
+    <t>0.668</t>
+  </si>
+  <si>
+    <t>0.007+/-0.002</t>
+  </si>
+  <si>
+    <t>0.643+/-0.004</t>
+  </si>
+  <si>
+    <t>0.609+/-0.0</t>
+  </si>
+  <si>
+    <t>0.795</t>
+  </si>
+  <si>
+    <t>0.631+/-0.003</t>
+  </si>
+  <si>
+    <t>0.291+/-0.013</t>
+  </si>
+  <si>
+    <t>0.35</t>
+  </si>
+  <si>
+    <t>0.686+/-0.007</t>
+  </si>
+  <si>
+    <t>0.662+/-0.05</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>0.696+/-0.003</t>
+  </si>
+  <si>
+    <t>0.682+/-0.02</t>
+  </si>
+  <si>
+    <t>0.666</t>
+  </si>
+  <si>
+    <t>0.336+/-0.037</t>
+  </si>
+  <si>
+    <t>0.577+/-0.002</t>
+  </si>
+  <si>
+    <t>0.436+/-0.0</t>
+  </si>
+  <si>
+    <t>0.593</t>
+  </si>
+  <si>
+    <t>0.552+/-0.002</t>
+  </si>
+  <si>
+    <t>0.235+/-0.011</t>
+  </si>
+  <si>
+    <t>0.257</t>
+  </si>
+  <si>
+    <t>0.81+/-0.012</t>
+  </si>
+  <si>
+    <t>0.798+/-0.034</t>
+  </si>
+  <si>
+    <t>0.539</t>
+  </si>
+  <si>
+    <t>0.644+/-0.002</t>
+  </si>
+  <si>
+    <t>0.638+/-0.025</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.014+/-0.008</t>
+  </si>
+  <si>
+    <t>0.596+/-0.005</t>
+  </si>
+  <si>
+    <t>0.55+/-0.0</t>
+  </si>
+  <si>
+    <t>0.688</t>
+  </si>
+  <si>
+    <t>0.584+/-0.004</t>
+  </si>
+  <si>
+    <t>0.256+/-0.013</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.665+/-0.013</t>
+  </si>
+  <si>
+    <t>0.651+/-0.034</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.637+/-0.004</t>
+  </si>
+  <si>
+    <t>0.623+/-0.026</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.016+/-0.004</t>
+  </si>
+  <si>
+    <t>0.816+/-0.011</t>
+  </si>
+  <si>
+    <t>0.67+/-0.0</t>
+  </si>
+  <si>
+    <t>0.781</t>
+  </si>
+  <si>
+    <t>0.79+/-0.023</t>
+  </si>
+  <si>
+    <t>0.318+/-0.029</t>
+  </si>
+  <si>
+    <t>0.361</t>
+  </si>
+  <si>
+    <t>0.863+/-0.033</t>
+  </si>
+  <si>
+    <t>0.551+/-0.065</t>
+  </si>
+  <si>
+    <t>0.115</t>
+  </si>
+  <si>
+    <t>0.896+/-0.011</t>
+  </si>
+  <si>
+    <t>0.67+/-0.024</t>
+  </si>
+  <si>
+    <t>0.673</t>
+  </si>
+  <si>
+    <t>13.377+/-3.827</t>
+  </si>
+  <si>
+    <t>0.77+/-0.016</t>
+  </si>
+  <si>
+    <t>0.641+/-0.0</t>
+  </si>
+  <si>
+    <t>0.784</t>
+  </si>
+  <si>
+    <t>0.751+/-0.029</t>
+  </si>
+  <si>
+    <t>0.294+/-0.027</t>
+  </si>
+  <si>
+    <t>0.402</t>
+  </si>
+  <si>
+    <t>0.815+/-0.054</t>
+  </si>
+  <si>
+    <t>0.546+/-0.065</t>
+  </si>
+  <si>
+    <t>0.141</t>
+  </si>
+  <si>
+    <t>0.861+/-0.015</t>
+  </si>
+  <si>
+    <t>0.643+/-0.014</t>
+  </si>
+  <si>
+    <t>0.65</t>
+  </si>
+  <si>
+    <t>0.226+/-0.018</t>
+  </si>
+  <si>
+    <t>0.74+/-0.01</t>
+  </si>
+  <si>
+    <t>0.633+/-0.0</t>
+  </si>
+  <si>
+    <t>0.779</t>
+  </si>
+  <si>
+    <t>0.724+/-0.035</t>
+  </si>
+  <si>
+    <t>0.291+/-0.024</t>
+  </si>
+  <si>
+    <t>0.345</t>
+  </si>
+  <si>
+    <t>0.788+/-0.082</t>
+  </si>
+  <si>
+    <t>0.556+/-0.096</t>
+  </si>
+  <si>
+    <t>0.107</t>
+  </si>
+  <si>
+    <t>0.836+/-0.011</t>
+  </si>
+  <si>
+    <t>0.648+/-0.021</t>
+  </si>
+  <si>
+    <t>0.61</t>
+  </si>
+  <si>
+    <t>0.305+/-0.016</t>
+  </si>
+  <si>
+    <t>0.737+/-0.004</t>
+  </si>
+  <si>
+    <t>0.646+/-0.0</t>
+  </si>
+  <si>
+    <t>0.796</t>
+  </si>
+  <si>
+    <t>0.709+/-0.005</t>
+  </si>
+  <si>
+    <t>0.314+/-0.016</t>
+  </si>
+  <si>
+    <t>0.391</t>
+  </si>
+  <si>
+    <t>0.803+/-0.01</t>
+  </si>
+  <si>
+    <t>0.64+/-0.047</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>0.824+/-0.003</t>
+  </si>
+  <si>
+    <t>0.703+/-0.025</t>
+  </si>
+  <si>
+    <t>0.667</t>
+  </si>
+  <si>
+    <t>61.865+/-1.799</t>
+  </si>
+  <si>
+    <t>0.85+/-0.0</t>
+  </si>
+  <si>
+    <t>0.85</t>
+  </si>
+  <si>
+    <t>0.637+/-0.0</t>
+  </si>
+  <si>
+    <t>0.848</t>
+  </si>
+  <si>
+    <t>0.988+/-0.0</t>
+  </si>
+  <si>
+    <t>0.232+/-0.018</t>
+  </si>
+  <si>
+    <t>0.462</t>
+  </si>
+  <si>
+    <t>0.613+/-0.052</t>
+  </si>
+  <si>
+    <t>0.086</t>
+  </si>
+  <si>
+    <t>0.998+/-0.003</t>
+  </si>
+  <si>
+    <t>0.669+/-0.024</t>
+  </si>
+  <si>
+    <t>0.66</t>
+  </si>
+  <si>
+    <t>0.007+/-0.001</t>
+  </si>
+  <si>
+    <t>0.654+/-0.003</t>
+  </si>
+  <si>
+    <t>0.636+/-0.0</t>
+  </si>
+  <si>
+    <t>0.847</t>
+  </si>
+  <si>
+    <t>0.649+/-0.003</t>
+  </si>
+  <si>
+    <t>0.238+/-0.01</t>
+  </si>
+  <si>
+    <t>0.672+/-0.006</t>
+  </si>
+  <si>
+    <t>0.651+/-0.041</t>
+  </si>
+  <si>
+    <t>0.713+/-0.003</t>
+  </si>
+  <si>
+    <t>0.698+/-0.021</t>
+  </si>
+  <si>
+    <t>0.679</t>
+  </si>
+  <si>
+    <t>0.37+/-0.03</t>
+  </si>
+  <si>
+    <t>0.59+/-0.004</t>
+  </si>
+  <si>
+    <t>0.451+/-0.0</t>
+  </si>
+  <si>
+    <t>0.681</t>
+  </si>
+  <si>
+    <t>0.565+/-0.004</t>
+  </si>
+  <si>
+    <t>0.184+/-0.011</t>
+  </si>
+  <si>
+    <t>0.227</t>
+  </si>
+  <si>
+    <t>0.783+/-0.014</t>
+  </si>
+  <si>
+    <t>0.772+/-0.037</t>
+  </si>
+  <si>
+    <t>0.47</t>
+  </si>
+  <si>
+    <t>0.657+/-0.003</t>
+  </si>
+  <si>
+    <t>0.652+/-0.026</t>
+  </si>
+  <si>
+    <t>0.626</t>
+  </si>
+  <si>
+    <t>0.012+/-0.003</t>
+  </si>
+  <si>
+    <t>0.606+/-0.003</t>
+  </si>
+  <si>
+    <t>0.551+/-0.0</t>
+  </si>
+  <si>
+    <t>0.737</t>
+  </si>
+  <si>
+    <t>0.592+/-0.003</t>
+  </si>
+  <si>
+    <t>0.201+/-0.012</t>
+  </si>
+  <si>
+    <t>0.215</t>
+  </si>
+  <si>
+    <t>0.681+/-0.004</t>
+  </si>
+  <si>
+    <t>0.666+/-0.03</t>
+  </si>
+  <si>
+    <t>0.283</t>
+  </si>
+  <si>
+    <t>0.642+/-0.003</t>
+  </si>
+  <si>
+    <t>0.634+/-0.023</t>
+  </si>
+  <si>
+    <t>0.606</t>
+  </si>
+  <si>
+    <t>0.023+/-0.012</t>
+  </si>
+  <si>
+    <t>0.837+/-0.007</t>
+  </si>
+  <si>
+    <t>0.69+/-0.0</t>
+  </si>
+  <si>
+    <t>0.824</t>
+  </si>
+  <si>
+    <t>0.81+/-0.016</t>
+  </si>
+  <si>
+    <t>0.242+/-0.021</t>
+  </si>
+  <si>
+    <t>0.333</t>
+  </si>
+  <si>
+    <t>0.88+/-0.037</t>
+  </si>
+  <si>
+    <t>0.493+/-0.041</t>
+  </si>
+  <si>
+    <t>0.172</t>
+  </si>
+  <si>
+    <t>0.912+/-0.005</t>
+  </si>
+  <si>
+    <t>0.657+/-0.029</t>
+  </si>
+  <si>
+    <t>0.694</t>
+  </si>
+  <si>
+    <t>13.374+/-2.451</t>
+  </si>
+  <si>
+    <t>0.798+/-0.016</t>
+  </si>
+  <si>
+    <t>0.686+/-0.0</t>
+  </si>
+  <si>
+    <t>0.829</t>
+  </si>
+  <si>
+    <t>0.79+/-0.05</t>
+  </si>
+  <si>
+    <t>0.247+/-0.028</t>
+  </si>
+  <si>
+    <t>0.303</t>
+  </si>
+  <si>
+    <t>0.825+/-0.07</t>
+  </si>
+  <si>
+    <t>0.505+/-0.098</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>0.895+/-0.013</t>
+  </si>
+  <si>
+    <t>0.637+/-0.028</t>
+  </si>
+  <si>
+    <t>0.222+/-0.015</t>
+  </si>
+  <si>
+    <t>0.785+/-0.015</t>
+  </si>
+  <si>
+    <t>0.678+/-0.0</t>
+  </si>
+  <si>
+    <t>0.83</t>
+  </si>
+  <si>
+    <t>0.779+/-0.044</t>
+  </si>
+  <si>
+    <t>0.237+/-0.028</t>
+  </si>
+  <si>
+    <t>0.266</t>
+  </si>
+  <si>
+    <t>0.807+/-0.069</t>
+  </si>
+  <si>
+    <t>0.497+/-0.088</t>
+  </si>
+  <si>
+    <t>0.075</t>
+  </si>
+  <si>
+    <t>0.885+/-0.017</t>
+  </si>
+  <si>
+    <t>0.642+/-0.023</t>
+  </si>
+  <si>
+    <t>0.635</t>
+  </si>
+  <si>
+    <t>0.318+/-0.015</t>
+  </si>
+  <si>
+    <t>0.752+/-0.003</t>
+  </si>
+  <si>
+    <t>0.674+/-0.0</t>
+  </si>
+  <si>
+    <t>0.851</t>
+  </si>
+  <si>
+    <t>0.73+/-0.006</t>
+  </si>
+  <si>
+    <t>0.257+/-0.021</t>
+  </si>
+  <si>
+    <t>0.545</t>
+  </si>
+  <si>
+    <t>0.801+/-0.01</t>
+  </si>
+  <si>
+    <t>0.616+/-0.043</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.837+/-0.002</t>
+  </si>
+  <si>
+    <t>0.704+/-0.02</t>
+  </si>
+  <si>
+    <t>0.624</t>
+  </si>
+  <si>
+    <t>66.551+/-2.079</t>
+  </si>
+  <si>
+    <t>0.723+/-0.0</t>
+  </si>
+  <si>
+    <t>0.723</t>
+  </si>
+  <si>
+    <t>0.995+/-0.0</t>
+  </si>
+  <si>
+    <t>0.535+/-0.0</t>
+  </si>
+  <si>
+    <t>0.703</t>
+  </si>
+  <si>
+    <t>0.311+/-0.016</t>
+  </si>
+  <si>
+    <t>0.991+/-0.001</t>
+  </si>
+  <si>
+    <t>0.56+/-0.033</t>
+  </si>
+  <si>
+    <t>0.132</t>
+  </si>
+  <si>
+    <t>0.563+/-0.024</t>
+  </si>
+  <si>
+    <t>0.579</t>
+  </si>
+  <si>
+    <t>0.006+/-0.001</t>
+  </si>
+  <si>
+    <t>0.582+/-0.005</t>
+  </si>
+  <si>
+    <t>0.607+/-0.0</t>
+  </si>
+  <si>
+    <t>0.725</t>
+  </si>
+  <si>
+    <t>0.592+/-0.004</t>
+  </si>
+  <si>
+    <t>0.358+/-0.01</t>
+  </si>
+  <si>
+    <t>0.548</t>
+  </si>
+  <si>
+    <t>0.527+/-0.01</t>
+  </si>
+  <si>
+    <t>0.531+/-0.033</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.621+/-0.004</t>
+  </si>
+  <si>
+    <t>0.614+/-0.015</t>
+  </si>
+  <si>
+    <t>0.612</t>
+  </si>
+  <si>
+    <t>0.218+/-0.019</t>
+  </si>
+  <si>
+    <t>0.553+/-0.002</t>
+  </si>
+  <si>
+    <t>0.664+/-0.0</t>
+  </si>
+  <si>
+    <t>0.678</t>
+  </si>
+  <si>
+    <t>0.604+/-0.008</t>
+  </si>
+  <si>
+    <t>0.373+/-0.025</t>
+  </si>
+  <si>
+    <t>0.356</t>
+  </si>
+  <si>
+    <t>0.308+/-0.02</t>
+  </si>
+  <si>
+    <t>0.313+/-0.037</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.594+/-0.004</t>
+  </si>
+  <si>
+    <t>0.589+/-0.021</t>
+  </si>
+  <si>
+    <t>0.591</t>
+  </si>
+  <si>
+    <t>0.01+/-0.001</t>
+  </si>
+  <si>
+    <t>0.564+/-0.003</t>
+  </si>
+  <si>
+    <t>0.584+/-0.0</t>
+  </si>
+  <si>
+    <t>0.634</t>
+  </si>
+  <si>
+    <t>0.57+/-0.003</t>
+  </si>
+  <si>
+    <t>0.336+/-0.016</t>
+  </si>
+  <si>
+    <t>0.349</t>
+  </si>
+  <si>
+    <t>0.516+/-0.004</t>
+  </si>
+  <si>
+    <t>0.512+/-0.017</t>
+  </si>
+  <si>
+    <t>0.369</t>
+  </si>
+  <si>
+    <t>0.586+/-0.002</t>
+  </si>
+  <si>
+    <t>0.582+/-0.019</t>
+  </si>
+  <si>
+    <t>0.015+/-0.003</t>
+  </si>
+  <si>
+    <t>0.731+/-0.014</t>
+  </si>
+  <si>
+    <t>0.564+/-0.0</t>
+  </si>
+  <si>
+    <t>0.706</t>
+  </si>
+  <si>
+    <t>0.705+/-0.024</t>
+  </si>
+  <si>
+    <t>0.325+/-0.017</t>
+  </si>
+  <si>
+    <t>0.433</t>
+  </si>
+  <si>
+    <t>0.798+/-0.035</t>
+  </si>
+  <si>
+    <t>0.529+/-0.058</t>
+  </si>
+  <si>
+    <t>0.196</t>
+  </si>
+  <si>
+    <t>0.812+/-0.013</t>
+  </si>
+  <si>
+    <t>0.57+/-0.026</t>
+  </si>
+  <si>
+    <t>0.568</t>
+  </si>
+  <si>
+    <t>10.74+/-1.625</t>
+  </si>
+  <si>
+    <t>0.734+/-0.006</t>
+  </si>
+  <si>
+    <t>0.606+/-0.0</t>
+  </si>
+  <si>
+    <t>0.749+/-0.027</t>
+  </si>
+  <si>
+    <t>0.328+/-0.027</t>
+  </si>
+  <si>
+    <t>0.427</t>
+  </si>
+  <si>
+    <t>0.707+/-0.056</t>
+  </si>
+  <si>
+    <t>0.4+/-0.069</t>
+  </si>
+  <si>
+    <t>0.183</t>
+  </si>
+  <si>
+    <t>0.829+/-0.01</t>
+  </si>
+  <si>
+    <t>0.562+/-0.019</t>
+  </si>
+  <si>
+    <t>0.173+/-0.012</t>
+  </si>
+  <si>
+    <t>0.716+/-0.005</t>
+  </si>
+  <si>
+    <t>0.595+/-0.0</t>
+  </si>
+  <si>
+    <t>0.695</t>
+  </si>
+  <si>
+    <t>0.718+/-0.023</t>
+  </si>
+  <si>
+    <t>0.329+/-0.019</t>
+  </si>
+  <si>
+    <t>0.383</t>
+  </si>
+  <si>
+    <t>0.717+/-0.051</t>
+  </si>
+  <si>
+    <t>0.442+/-0.047</t>
+  </si>
+  <si>
+    <t>0.165</t>
+  </si>
+  <si>
+    <t>0.813+/-0.006</t>
+  </si>
+  <si>
+    <t>0.567+/-0.02</t>
+  </si>
+  <si>
+    <t>0.541</t>
+  </si>
+  <si>
+    <t>0.243+/-0.007</t>
+  </si>
+  <si>
+    <t>0.666+/-0.005</t>
+  </si>
+  <si>
+    <t>0.587+/-0.0</t>
+  </si>
+  <si>
+    <t>0.722</t>
+  </si>
+  <si>
+    <t>0.66+/-0.005</t>
+  </si>
+  <si>
+    <t>0.342+/-0.016</t>
+  </si>
+  <si>
+    <t>0.421</t>
+  </si>
+  <si>
+    <t>0.684+/-0.014</t>
+  </si>
+  <si>
+    <t>0.534+/-0.03</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>0.738+/-0.004</t>
+  </si>
+  <si>
+    <t>0.6+/-0.021</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>56.773+/-1.623</t>
+  </si>
+  <si>
+    <t>0.692+/-0.0</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.995+/-0.001</t>
+  </si>
+  <si>
+    <t>0.531+/-0.0</t>
+  </si>
+  <si>
+    <t>0.659</t>
+  </si>
+  <si>
+    <t>0.34+/-0.018</t>
+  </si>
+  <si>
+    <t>0.379</t>
+  </si>
+  <si>
+    <t>0.99+/-0.001</t>
+  </si>
+  <si>
+    <t>0.554+/-0.034</t>
+  </si>
+  <si>
+    <t>0.168</t>
+  </si>
+  <si>
+    <t>0.555+/-0.024</t>
+  </si>
+  <si>
+    <t>0.551</t>
+  </si>
+  <si>
+    <t>0.008+/-0.008</t>
+  </si>
+  <si>
+    <t>0.568+/-0.004</t>
+  </si>
+  <si>
+    <t>0.574+/-0.0</t>
+  </si>
+  <si>
+    <t>0.574+/-0.005</t>
+  </si>
+  <si>
+    <t>0.364+/-0.018</t>
   </si>
   <si>
     <t>0.533</t>
   </si>
   <si>
-    <t>0.586+/-0.001</t>
-  </si>
-  <si>
-    <t>0.586+/-0.012</t>
-  </si>
-  <si>
-    <t>0.242</t>
-  </si>
-  <si>
-    <t>0.677+/-0.003</t>
-  </si>
-  <si>
-    <t>0.677+/-0.018</t>
-  </si>
-  <si>
-    <t>0.619</t>
-  </si>
-  <si>
-    <t>0.01+/-0.001</t>
-  </si>
-  <si>
-    <t>0.806+/-0.009</t>
-  </si>
-  <si>
-    <t>0.747+/-0.0</t>
-  </si>
-  <si>
-    <t>0.671</t>
-  </si>
-  <si>
-    <t>0.786+/-0.018</t>
-  </si>
-  <si>
-    <t>0.727+/-0.018</t>
-  </si>
-  <si>
-    <t>0.29</t>
-  </si>
-  <si>
-    <t>0.843+/-0.041</t>
-  </si>
-  <si>
-    <t>0.793+/-0.044</t>
-  </si>
-  <si>
-    <t>0.435</t>
-  </si>
-  <si>
-    <t>6.271+/-1.554</t>
-  </si>
-  <si>
-    <t>0.75+/-0.012</t>
-  </si>
-  <si>
-    <t>0.701+/-0.0</t>
-  </si>
-  <si>
-    <t>0.551</t>
-  </si>
-  <si>
-    <t>0.729+/-0.04</t>
-  </si>
-  <si>
-    <t>0.683+/-0.032</t>
-  </si>
-  <si>
-    <t>0.252</t>
-  </si>
-  <si>
-    <t>0.81+/-0.09</t>
-  </si>
-  <si>
-    <t>0.762+/-0.088</t>
-  </si>
-  <si>
-    <t>0.624</t>
-  </si>
-  <si>
-    <t>0.186+/-0.004</t>
-  </si>
-  <si>
-    <t>0.731+/-0.01</t>
-  </si>
-  <si>
-    <t>0.693+/-0.0</t>
-  </si>
-  <si>
-    <t>0.656</t>
-  </si>
-  <si>
-    <t>0.722+/-0.036</t>
-  </si>
-  <si>
-    <t>0.684+/-0.032</t>
-  </si>
-  <si>
-    <t>0.279</t>
-  </si>
-  <si>
-    <t>0.768+/-0.103</t>
-  </si>
-  <si>
-    <t>0.734+/-0.092</t>
-  </si>
-  <si>
-    <t>0.445</t>
-  </si>
-  <si>
-    <t>0.273+/-0.003</t>
-  </si>
-  <si>
-    <t>0.731+/-0.002</t>
-  </si>
-  <si>
-    <t>0.707+/-0.0</t>
-  </si>
-  <si>
-    <t>0.63</t>
-  </si>
-  <si>
-    <t>0.704+/-0.002</t>
-  </si>
-  <si>
-    <t>0.682+/-0.012</t>
-  </si>
-  <si>
-    <t>0.301</t>
-  </si>
-  <si>
-    <t>0.798+/-0.004</t>
-  </si>
-  <si>
-    <t>0.776+/-0.012</t>
-  </si>
-  <si>
-    <t>53.113+/-2.923</t>
-  </si>
-  <si>
-    <t>0.85</t>
-  </si>
-  <si>
-    <t>0.992+/-0.006</t>
-  </si>
-  <si>
-    <t>0.806+/-0.0</t>
-  </si>
-  <si>
-    <t>0.606</t>
-  </si>
-  <si>
-    <t>0.727+/-0.011</t>
-  </si>
-  <si>
-    <t>0.202</t>
-  </si>
-  <si>
-    <t>0.995+/-0.015</t>
-  </si>
-  <si>
-    <t>0.982+/-0.013</t>
-  </si>
-  <si>
-    <t>0.548</t>
-  </si>
-  <si>
-    <t>0.65+/-0.002</t>
-  </si>
-  <si>
-    <t>0.646+/-0.0</t>
-  </si>
-  <si>
-    <t>0.618</t>
-  </si>
-  <si>
-    <t>0.646+/-0.001</t>
-  </si>
-  <si>
-    <t>0.642+/-0.011</t>
-  </si>
-  <si>
-    <t>0.225</t>
-  </si>
-  <si>
-    <t>0.662+/-0.004</t>
-  </si>
-  <si>
-    <t>0.661+/-0.026</t>
-  </si>
-  <si>
-    <t>0.631</t>
-  </si>
-  <si>
-    <t>0.393+/-0.031</t>
-  </si>
-  <si>
-    <t>0.585+/-0.002</t>
-  </si>
-  <si>
-    <t>0.583+/-0.0</t>
-  </si>
-  <si>
-    <t>0.442</t>
-  </si>
-  <si>
-    <t>0.561+/-0.002</t>
-  </si>
-  <si>
-    <t>0.56+/-0.008</t>
-  </si>
-  <si>
-    <t>0.175</t>
-  </si>
-  <si>
-    <t>0.776+/-0.006</t>
-  </si>
-  <si>
-    <t>0.774+/-0.019</t>
-  </si>
-  <si>
-    <t>0.731</t>
+    <t>0.526+/-0.006</t>
+  </si>
+  <si>
+    <t>0.512+/-0.031</t>
+  </si>
+  <si>
+    <t>0.042</t>
+  </si>
+  <si>
+    <t>0.585+/-0.017</t>
+  </si>
+  <si>
+    <t>0.586</t>
+  </si>
+  <si>
+    <t>0.16+/-0.019</t>
+  </si>
+  <si>
+    <t>0.551+/-0.005</t>
+  </si>
+  <si>
+    <t>0.646</t>
+  </si>
+  <si>
+    <t>0.563+/-0.005</t>
+  </si>
+  <si>
+    <t>0.362+/-0.012</t>
+  </si>
+  <si>
+    <t>0.462+/-0.034</t>
+  </si>
+  <si>
+    <t>0.459+/-0.045</t>
+  </si>
+  <si>
+    <t>0.243</t>
+  </si>
+  <si>
+    <t>0.577+/-0.003</t>
+  </si>
+  <si>
+    <t>0.571+/-0.013</t>
+  </si>
+  <si>
+    <t>0.575</t>
   </si>
   <si>
     <t>0.009+/-0.001</t>
   </si>
   <si>
-    <t>0.603+/-0.001</t>
-  </si>
-  <si>
-    <t>0.603+/-0.0</t>
-  </si>
-  <si>
-    <t>0.544</t>
-  </si>
-  <si>
-    <t>0.59+/-0.001</t>
-  </si>
-  <si>
-    <t>0.59+/-0.014</t>
-  </si>
-  <si>
-    <t>0.191</t>
-  </si>
-  <si>
-    <t>0.676+/-0.002</t>
-  </si>
-  <si>
-    <t>0.676+/-0.019</t>
-  </si>
-  <si>
-    <t>0.011+/-0.001</t>
-  </si>
-  <si>
-    <t>0.825+/-0.009</t>
-  </si>
-  <si>
-    <t>0.77+/-0.0</t>
-  </si>
-  <si>
-    <t>0.681</t>
-  </si>
-  <si>
-    <t>0.796+/-0.019</t>
-  </si>
-  <si>
-    <t>0.739+/-0.017</t>
-  </si>
-  <si>
-    <t>0.236</t>
-  </si>
-  <si>
-    <t>0.876+/-0.027</t>
-  </si>
-  <si>
-    <t>0.836+/-0.028</t>
-  </si>
-  <si>
-    <t>0.502</t>
-  </si>
-  <si>
-    <t>7.107+/-1.338</t>
-  </si>
-  <si>
-    <t>0.781+/-0.005</t>
-  </si>
-  <si>
-    <t>0.737+/-0.0</t>
-  </si>
-  <si>
-    <t>0.601</t>
-  </si>
-  <si>
-    <t>0.751+/-0.023</t>
-  </si>
-  <si>
-    <t>0.709+/-0.021</t>
-  </si>
-  <si>
-    <t>0.845+/-0.053</t>
-  </si>
-  <si>
-    <t>0.81+/-0.059</t>
-  </si>
-  <si>
-    <t>0.513</t>
-  </si>
-  <si>
-    <t>0.169+/-0.011</t>
-  </si>
-  <si>
-    <t>0.768+/-0.006</t>
-  </si>
-  <si>
-    <t>0.729+/-0.0</t>
-  </si>
-  <si>
-    <t>0.608</t>
-  </si>
-  <si>
-    <t>0.746+/-0.045</t>
-  </si>
-  <si>
-    <t>0.709+/-0.039</t>
-  </si>
-  <si>
-    <t>0.2</t>
-  </si>
-  <si>
-    <t>0.827+/-0.079</t>
-  </si>
-  <si>
-    <t>0.792+/-0.082</t>
-  </si>
-  <si>
-    <t>0.538</t>
-  </si>
-  <si>
-    <t>0.243+/-0.008</t>
-  </si>
-  <si>
-    <t>0.744+/-0.002</t>
-  </si>
-  <si>
-    <t>0.726+/-0.0</t>
-  </si>
-  <si>
-    <t>0.648</t>
-  </si>
-  <si>
-    <t>0.726+/-0.002</t>
-  </si>
-  <si>
-    <t>0.71+/-0.009</t>
-  </si>
-  <si>
-    <t>0.784+/-0.003</t>
-  </si>
-  <si>
-    <t>0.765+/-0.016</t>
-  </si>
-  <si>
-    <t>0.552</t>
-  </si>
-  <si>
-    <t>50.882+/-4.72</t>
-  </si>
-  <si>
-    <t>0.723</t>
-  </si>
-  <si>
-    <t>0.15+/-0.229</t>
-  </si>
-  <si>
-    <t>0.3+/-0.458</t>
-  </si>
-  <si>
-    <t>0.995+/-0.0</t>
-  </si>
-  <si>
-    <t>0.716+/-0.0</t>
-  </si>
-  <si>
-    <t>0.539</t>
-  </si>
-  <si>
-    <t>1.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.656+/-0.007</t>
-  </si>
-  <si>
-    <t>0.309</t>
-  </si>
-  <si>
-    <t>0.989+/-0.001</t>
-  </si>
-  <si>
-    <t>0.908+/-0.011</t>
-  </si>
-  <si>
-    <t>0.583+/-0.002</t>
-  </si>
-  <si>
-    <t>0.576+/-0.0</t>
-  </si>
-  <si>
-    <t>0.604</t>
-  </si>
-  <si>
-    <t>0.593+/-0.002</t>
-  </si>
-  <si>
-    <t>0.585+/-0.012</t>
-  </si>
-  <si>
-    <t>0.354</t>
-  </si>
-  <si>
-    <t>0.527+/-0.003</t>
-  </si>
-  <si>
-    <t>0.522+/-0.022</t>
-  </si>
-  <si>
-    <t>0.522</t>
-  </si>
-  <si>
-    <t>0.222+/-0.015</t>
-  </si>
-  <si>
-    <t>0.56+/-0.001</t>
-  </si>
-  <si>
-    <t>0.559+/-0.0</t>
-  </si>
-  <si>
-    <t>0.662</t>
-  </si>
-  <si>
-    <t>0.609+/-0.003</t>
-  </si>
-  <si>
-    <t>0.608+/-0.015</t>
-  </si>
-  <si>
-    <t>0.376</t>
-  </si>
-  <si>
-    <t>0.336+/-0.008</t>
-  </si>
-  <si>
-    <t>0.335+/-0.018</t>
-  </si>
-  <si>
-    <t>0.332</t>
-  </si>
-  <si>
-    <t>0.008+/-0.0</t>
-  </si>
-  <si>
-    <t>0.564+/-0.002</t>
-  </si>
-  <si>
-    <t>0.562+/-0.0</t>
-  </si>
-  <si>
-    <t>0.591</t>
-  </si>
-  <si>
-    <t>0.572+/-0.003</t>
-  </si>
-  <si>
-    <t>0.57+/-0.011</t>
-  </si>
-  <si>
-    <t>0.342</t>
-  </si>
-  <si>
-    <t>0.513+/-0.004</t>
-  </si>
-  <si>
-    <t>0.512+/-0.019</t>
-  </si>
-  <si>
-    <t>0.515</t>
-  </si>
-  <si>
-    <t>0.727+/-0.01</t>
-  </si>
-  <si>
-    <t>0.635</t>
-  </si>
-  <si>
-    <t>0.713+/-0.026</t>
-  </si>
-  <si>
-    <t>0.633+/-0.024</t>
-  </si>
-  <si>
-    <t>0.353</t>
-  </si>
-  <si>
-    <t>0.767+/-0.053</t>
-  </si>
-  <si>
-    <t>0.686+/-0.059</t>
-  </si>
-  <si>
-    <t>0.381</t>
-  </si>
-  <si>
-    <t>5.542+/-0.911</t>
-  </si>
-  <si>
-    <t>0.759+/-0.005</t>
-  </si>
-  <si>
-    <t>0.676+/-0.0</t>
-  </si>
-  <si>
-    <t>0.622</t>
-  </si>
-  <si>
-    <t>0.784+/-0.021</t>
-  </si>
-  <si>
-    <t>0.693+/-0.027</t>
-  </si>
-  <si>
-    <t>0.344</t>
-  </si>
-  <si>
-    <t>0.718+/-0.032</t>
-  </si>
-  <si>
-    <t>0.637+/-0.032</t>
-  </si>
-  <si>
-    <t>0.402</t>
-  </si>
-  <si>
-    <t>0.147+/-0.008</t>
-  </si>
-  <si>
-    <t>0.74+/-0.009</t>
-  </si>
-  <si>
-    <t>0.67+/-0.0</t>
-  </si>
-  <si>
-    <t>0.757+/-0.017</t>
-  </si>
-  <si>
-    <t>0.684+/-0.022</t>
-  </si>
-  <si>
-    <t>0.33</t>
-  </si>
-  <si>
-    <t>0.709+/-0.03</t>
-  </si>
-  <si>
-    <t>0.636+/-0.03</t>
-  </si>
-  <si>
-    <t>0.406</t>
-  </si>
-  <si>
-    <t>0.199+/-0.006</t>
-  </si>
-  <si>
-    <t>0.667+/-0.002</t>
-  </si>
-  <si>
-    <t>0.622+/-0.0</t>
-  </si>
-  <si>
-    <t>0.58</t>
-  </si>
-  <si>
-    <t>0.661+/-0.002</t>
-  </si>
-  <si>
-    <t>0.617+/-0.014</t>
+    <t>0.551+/-0.004</t>
+  </si>
+  <si>
+    <t>0.57+/-0.0</t>
+  </si>
+  <si>
+    <t>0.556+/-0.004</t>
+  </si>
+  <si>
+    <t>0.357+/-0.014</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.499+/-0.006</t>
+  </si>
+  <si>
+    <t>0.497+/-0.03</t>
   </si>
   <si>
     <t>0.335</t>
   </si>
   <si>
-    <t>0.688+/-0.009</t>
-  </si>
-  <si>
-    <t>0.642+/-0.026</t>
-  </si>
-  <si>
-    <t>0.524</t>
-  </si>
-  <si>
-    <t>42.725+/-2.699</t>
-  </si>
-  <si>
-    <t>0.692</t>
-  </si>
-  <si>
-    <t>0.25+/-0.25</t>
-  </si>
-  <si>
-    <t>0.5+/-0.5</t>
-  </si>
-  <si>
-    <t>0.0+/-0.0</t>
-  </si>
-  <si>
-    <t>0.994+/-0.002</t>
-  </si>
-  <si>
-    <t>0.694+/-0.0</t>
-  </si>
-  <si>
-    <t>0.996+/-0.008</t>
-  </si>
-  <si>
-    <t>0.641+/-0.009</t>
-  </si>
-  <si>
-    <t>0.338</t>
-  </si>
-  <si>
-    <t>0.992+/-0.004</t>
-  </si>
-  <si>
-    <t>0.886+/-0.011</t>
-  </si>
-  <si>
-    <t>0.565+/-0.001</t>
-  </si>
-  <si>
-    <t>0.575</t>
-  </si>
-  <si>
-    <t>0.573+/-0.002</t>
-  </si>
-  <si>
-    <t>0.57+/-0.012</t>
-  </si>
-  <si>
-    <t>0.362</t>
-  </si>
-  <si>
-    <t>0.51+/-0.003</t>
-  </si>
-  <si>
-    <t>0.51+/-0.023</t>
-  </si>
-  <si>
-    <t>0.496</t>
-  </si>
-  <si>
-    <t>0.119+/-0.023</t>
-  </si>
-  <si>
-    <t>0.553+/-0.002</t>
-  </si>
-  <si>
-    <t>0.549+/-0.0</t>
-  </si>
-  <si>
-    <t>0.592</t>
-  </si>
-  <si>
-    <t>0.565+/-0.003</t>
-  </si>
-  <si>
-    <t>0.56+/-0.016</t>
-  </si>
-  <si>
-    <t>0.369</t>
-  </si>
-  <si>
-    <t>0.465+/-0.018</t>
-  </si>
-  <si>
-    <t>0.461+/-0.027</t>
-  </si>
-  <si>
-    <t>0.457</t>
-  </si>
-  <si>
-    <t>0.007+/-0.0</t>
-  </si>
-  <si>
-    <t>0.554+/-0.0</t>
-  </si>
-  <si>
-    <t>0.579</t>
-  </si>
-  <si>
-    <t>0.56+/-0.002</t>
-  </si>
-  <si>
-    <t>0.56+/-0.02</t>
-  </si>
-  <si>
-    <t>0.367</t>
-  </si>
-  <si>
-    <t>0.505+/-0.002</t>
-  </si>
-  <si>
-    <t>0.503+/-0.023</t>
-  </si>
-  <si>
-    <t>0.504</t>
-  </si>
-  <si>
-    <t>0.702+/-0.007</t>
-  </si>
-  <si>
-    <t>0.618+/-0.0</t>
-  </si>
-  <si>
-    <t>0.567</t>
-  </si>
-  <si>
-    <t>0.696+/-0.021</t>
-  </si>
-  <si>
-    <t>0.614+/-0.017</t>
-  </si>
-  <si>
-    <t>0.349</t>
-  </si>
-  <si>
-    <t>0.722+/-0.06</t>
-  </si>
-  <si>
-    <t>0.641+/-0.056</t>
-  </si>
-  <si>
-    <t>0.468</t>
-  </si>
-  <si>
-    <t>4.659+/-0.652</t>
-  </si>
-  <si>
-    <t>0.743+/-0.007</t>
-  </si>
-  <si>
-    <t>0.653+/-0.0</t>
-  </si>
-  <si>
-    <t>0.568</t>
-  </si>
-  <si>
-    <t>0.738+/-0.017</t>
-  </si>
-  <si>
-    <t>0.65+/-0.016</t>
-  </si>
-  <si>
-    <t>0.757+/-0.034</t>
-  </si>
-  <si>
-    <t>0.664+/-0.033</t>
-  </si>
-  <si>
-    <t>0.422</t>
-  </si>
-  <si>
-    <t>0.103+/-0.009</t>
-  </si>
-  <si>
-    <t>0.721+/-0.005</t>
-  </si>
-  <si>
-    <t>0.649+/-0.0</t>
+    <t>0.567+/-0.005</t>
+  </si>
+  <si>
+    <t>0.563+/-0.014</t>
   </si>
   <si>
     <t>0.569</t>
   </si>
   <si>
-    <t>0.713+/-0.016</t>
-  </si>
-  <si>
-    <t>0.645+/-0.024</t>
-  </si>
-  <si>
-    <t>0.356</t>
-  </si>
-  <si>
-    <t>0.744+/-0.032</t>
-  </si>
-  <si>
-    <t>0.672+/-0.027</t>
-  </si>
-  <si>
-    <t>0.139+/-0.007</t>
-  </si>
-  <si>
-    <t>0.652+/-0.001</t>
-  </si>
-  <si>
-    <t>0.61+/-0.0</t>
-  </si>
-  <si>
-    <t>0.583</t>
-  </si>
-  <si>
-    <t>0.645+/-0.003</t>
-  </si>
-  <si>
-    <t>0.604+/-0.015</t>
-  </si>
-  <si>
-    <t>0.379</t>
-  </si>
-  <si>
-    <t>0.679+/-0.007</t>
-  </si>
-  <si>
-    <t>0.64+/-0.017</t>
-  </si>
-  <si>
-    <t>0.555</t>
-  </si>
-  <si>
-    <t>32.221+/-0.682</t>
+    <t>0.013+/-0.002</t>
+  </si>
+  <si>
+    <t>0.707+/-0.008</t>
+  </si>
+  <si>
+    <t>0.548+/-0.0</t>
+  </si>
+  <si>
+    <t>0.67</t>
+  </si>
+  <si>
+    <t>0.692+/-0.025</t>
+  </si>
+  <si>
+    <t>0.341+/-0.017</t>
+  </si>
+  <si>
+    <t>0.394</t>
+  </si>
+  <si>
+    <t>0.752+/-0.057</t>
+  </si>
+  <si>
+    <t>0.496+/-0.074</t>
+  </si>
+  <si>
+    <t>0.133</t>
+  </si>
+  <si>
+    <t>0.785+/-0.009</t>
+  </si>
+  <si>
+    <t>0.554+/-0.025</t>
+  </si>
+  <si>
+    <t>0.562</t>
+  </si>
+  <si>
+    <t>11.331+/-2.478</t>
+  </si>
+  <si>
+    <t>0.736+/-0.012</t>
+  </si>
+  <si>
+    <t>0.683</t>
+  </si>
+  <si>
+    <t>0.743+/-0.029</t>
+  </si>
+  <si>
+    <t>0.368+/-0.022</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.726+/-0.054</t>
+  </si>
+  <si>
+    <t>0.422+/-0.055</t>
+  </si>
+  <si>
+    <t>0.103</t>
+  </si>
+  <si>
+    <t>0.833+/-0.009</t>
+  </si>
+  <si>
+    <t>0.556+/-0.019</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.147+/-0.005</t>
+  </si>
+  <si>
+    <t>0.719+/-0.005</t>
+  </si>
+  <si>
+    <t>0.592+/-0.0</t>
+  </si>
+  <si>
+    <t>0.685</t>
+  </si>
+  <si>
+    <t>0.734+/-0.019</t>
+  </si>
+  <si>
+    <t>0.35+/-0.026</t>
+  </si>
+  <si>
+    <t>0.452</t>
+  </si>
+  <si>
+    <t>0.691+/-0.033</t>
+  </si>
+  <si>
+    <t>0.38+/-0.05</t>
+  </si>
+  <si>
+    <t>0.098</t>
+  </si>
+  <si>
+    <t>0.816+/-0.005</t>
+  </si>
+  <si>
+    <t>0.548+/-0.021</t>
+  </si>
+  <si>
+    <t>0.212+/-0.01</t>
+  </si>
+  <si>
+    <t>0.652+/-0.004</t>
+  </si>
+  <si>
+    <t>0.642+/-0.005</t>
+  </si>
+  <si>
+    <t>0.361+/-0.018</t>
+  </si>
+  <si>
+    <t>0.565</t>
+  </si>
+  <si>
+    <t>0.684+/-0.02</t>
+  </si>
+  <si>
+    <t>0.537+/-0.026</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>0.715+/-0.003</t>
+  </si>
+  <si>
+    <t>0.582+/-0.016</t>
+  </si>
+  <si>
+    <t>0.581</t>
+  </si>
+  <si>
+    <t>50.813+/-2.185</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1661,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1416,31 +1701,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>55</v>
       </c>
       <c r="F2" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="G2" t="s">
-        <v>65</v>
+        <v>81</v>
       </c>
       <c r="H2" t="s">
-        <v>75</v>
+        <v>94</v>
       </c>
       <c r="I2" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1448,31 +1733,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="E3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="F3" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="G3" t="s">
-        <v>66</v>
+        <v>82</v>
       </c>
       <c r="H3" t="s">
-        <v>76</v>
+        <v>95</v>
       </c>
       <c r="I3" t="s">
-        <v>86</v>
+        <v>108</v>
       </c>
       <c r="J3" t="s">
-        <v>96</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1480,31 +1765,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="E4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="F4" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
       <c r="G4" t="s">
-        <v>67</v>
+        <v>83</v>
       </c>
       <c r="H4" t="s">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="I4" t="s">
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="J4" t="s">
-        <v>97</v>
+        <v>122</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1512,31 +1797,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
-        <v>48</v>
+        <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>68</v>
+        <v>84</v>
       </c>
       <c r="H5" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="I5" t="s">
-        <v>88</v>
+        <v>110</v>
       </c>
       <c r="J5" t="s">
-        <v>98</v>
+        <v>123</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1544,31 +1829,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="D6" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>49</v>
+        <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G6" t="s">
-        <v>69</v>
+        <v>85</v>
       </c>
       <c r="H6" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="I6" t="s">
-        <v>89</v>
+        <v>111</v>
       </c>
       <c r="J6" t="s">
-        <v>99</v>
+        <v>124</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1576,31 +1861,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="D7" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="E7" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="F7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="G7" t="s">
-        <v>70</v>
+        <v>86</v>
       </c>
       <c r="H7" t="s">
-        <v>80</v>
+        <v>99</v>
       </c>
       <c r="I7" t="s">
-        <v>90</v>
+        <v>112</v>
       </c>
       <c r="J7" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1608,31 +1893,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="E8" t="s">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="F8" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="G8" t="s">
-        <v>71</v>
+        <v>87</v>
       </c>
       <c r="H8" t="s">
-        <v>81</v>
+        <v>100</v>
       </c>
       <c r="I8" t="s">
-        <v>91</v>
+        <v>113</v>
       </c>
       <c r="J8" t="s">
-        <v>101</v>
+        <v>126</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1640,31 +1925,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D9" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="E9" t="s">
-        <v>52</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="G9" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
       <c r="H9" t="s">
-        <v>82</v>
+        <v>101</v>
       </c>
       <c r="I9" t="s">
-        <v>92</v>
+        <v>114</v>
       </c>
       <c r="J9" t="s">
-        <v>102</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1672,31 +1957,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="D10" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="E10" t="s">
-        <v>53</v>
+        <v>63</v>
       </c>
       <c r="F10" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="G10" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="H10" t="s">
-        <v>83</v>
+        <v>102</v>
       </c>
       <c r="I10" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="J10" t="s">
-        <v>43</v>
+        <v>128</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1704,31 +1989,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="E11" t="s">
+        <v>64</v>
+      </c>
+      <c r="F11" t="s">
+        <v>77</v>
+      </c>
+      <c r="G11" t="s">
+        <v>90</v>
+      </c>
+      <c r="H11" t="s">
+        <v>103</v>
+      </c>
+      <c r="I11" t="s">
+        <v>116</v>
+      </c>
+      <c r="J11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s">
+        <v>52</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>78</v>
+      </c>
+      <c r="G12" t="s">
+        <v>91</v>
+      </c>
+      <c r="H12" t="s">
+        <v>104</v>
+      </c>
+      <c r="I12" t="s">
+        <v>117</v>
+      </c>
+      <c r="J12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>79</v>
+      </c>
+      <c r="G13" t="s">
+        <v>92</v>
+      </c>
+      <c r="H13" t="s">
+        <v>105</v>
+      </c>
+      <c r="I13" t="s">
+        <v>118</v>
+      </c>
+      <c r="J13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D14" t="s">
         <v>54</v>
       </c>
-      <c r="F11" t="s">
-        <v>64</v>
-      </c>
-      <c r="G11" t="s">
-        <v>74</v>
-      </c>
-      <c r="H11" t="s">
-        <v>84</v>
-      </c>
-      <c r="I11" t="s">
-        <v>94</v>
-      </c>
-      <c r="J11" t="s">
-        <v>103</v>
+      <c r="E14" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" t="s">
+        <v>80</v>
+      </c>
+      <c r="G14" t="s">
+        <v>93</v>
+      </c>
+      <c r="H14" t="s">
+        <v>106</v>
+      </c>
+      <c r="I14" t="s">
+        <v>119</v>
+      </c>
+      <c r="J14" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1738,7 +2119,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1778,31 +2159,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>105</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>146</v>
       </c>
       <c r="E2" t="s">
-        <v>123</v>
+        <v>157</v>
       </c>
       <c r="F2" t="s">
-        <v>133</v>
+        <v>170</v>
       </c>
       <c r="G2" t="s">
-        <v>142</v>
+        <v>183</v>
       </c>
       <c r="H2" t="s">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="I2" t="s">
-        <v>161</v>
+        <v>208</v>
       </c>
       <c r="J2" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1810,31 +2191,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>133</v>
       </c>
       <c r="C3" t="s">
-        <v>106</v>
+        <v>135</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="E3" t="s">
-        <v>124</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>134</v>
+        <v>171</v>
       </c>
       <c r="G3" t="s">
-        <v>143</v>
+        <v>184</v>
       </c>
       <c r="H3" t="s">
-        <v>153</v>
+        <v>197</v>
       </c>
       <c r="I3" t="s">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="J3" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1842,31 +2223,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="C4" t="s">
-        <v>107</v>
+        <v>136</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="E4" t="s">
-        <v>125</v>
+        <v>159</v>
       </c>
       <c r="F4" t="s">
-        <v>135</v>
+        <v>172</v>
       </c>
       <c r="G4" t="s">
-        <v>144</v>
+        <v>185</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>198</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>210</v>
       </c>
       <c r="J4" t="s">
-        <v>173</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1874,31 +2255,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>137</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>149</v>
       </c>
       <c r="E5" t="s">
-        <v>126</v>
+        <v>160</v>
       </c>
       <c r="F5" t="s">
-        <v>136</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>145</v>
+        <v>186</v>
       </c>
       <c r="H5" t="s">
-        <v>155</v>
+        <v>199</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
+        <v>211</v>
       </c>
       <c r="J5" t="s">
-        <v>174</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -1906,31 +2287,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>150</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>161</v>
       </c>
       <c r="F6" t="s">
-        <v>137</v>
+        <v>174</v>
       </c>
       <c r="G6" t="s">
-        <v>146</v>
+        <v>187</v>
       </c>
       <c r="H6" t="s">
-        <v>156</v>
+        <v>200</v>
       </c>
       <c r="I6" t="s">
-        <v>165</v>
+        <v>212</v>
       </c>
       <c r="J6" t="s">
-        <v>175</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1938,31 +2319,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>26</v>
       </c>
       <c r="E7" t="s">
-        <v>128</v>
+        <v>162</v>
       </c>
       <c r="F7" t="s">
-        <v>138</v>
+        <v>175</v>
       </c>
       <c r="G7" t="s">
-        <v>147</v>
+        <v>188</v>
       </c>
       <c r="H7" t="s">
-        <v>138</v>
+        <v>201</v>
       </c>
       <c r="I7" t="s">
-        <v>166</v>
+        <v>213</v>
       </c>
       <c r="J7" t="s">
-        <v>118</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1970,31 +2351,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>110</v>
+        <v>35</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>129</v>
+        <v>163</v>
       </c>
       <c r="F8" t="s">
-        <v>139</v>
+        <v>176</v>
       </c>
       <c r="G8" t="s">
-        <v>148</v>
+        <v>189</v>
       </c>
       <c r="H8" t="s">
-        <v>157</v>
+        <v>202</v>
       </c>
       <c r="I8" t="s">
-        <v>167</v>
+        <v>214</v>
       </c>
       <c r="J8" t="s">
-        <v>176</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2002,31 +2383,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>152</v>
       </c>
       <c r="E9" t="s">
-        <v>130</v>
+        <v>164</v>
       </c>
       <c r="F9" t="s">
-        <v>140</v>
+        <v>177</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>190</v>
       </c>
       <c r="H9" t="s">
-        <v>158</v>
+        <v>203</v>
       </c>
       <c r="I9" t="s">
-        <v>168</v>
+        <v>215</v>
       </c>
       <c r="J9" t="s">
-        <v>177</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2034,31 +2415,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>26</v>
       </c>
       <c r="E10" t="s">
-        <v>131</v>
+        <v>165</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>178</v>
       </c>
       <c r="G10" t="s">
-        <v>150</v>
+        <v>191</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>204</v>
       </c>
       <c r="I10" t="s">
-        <v>169</v>
+        <v>216</v>
       </c>
       <c r="J10" t="s">
-        <v>178</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2066,31 +2447,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>153</v>
       </c>
       <c r="E11" t="s">
-        <v>132</v>
+        <v>166</v>
       </c>
       <c r="F11" t="s">
-        <v>141</v>
+        <v>179</v>
       </c>
       <c r="G11" t="s">
-        <v>151</v>
+        <v>192</v>
       </c>
       <c r="H11" t="s">
-        <v>160</v>
+        <v>205</v>
       </c>
       <c r="I11" t="s">
-        <v>170</v>
+        <v>217</v>
       </c>
       <c r="J11" t="s">
-        <v>179</v>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>143</v>
+      </c>
+      <c r="D12" t="s">
+        <v>154</v>
+      </c>
+      <c r="E12" t="s">
+        <v>167</v>
+      </c>
+      <c r="F12" t="s">
+        <v>180</v>
+      </c>
+      <c r="G12" t="s">
+        <v>193</v>
+      </c>
+      <c r="H12" t="s">
+        <v>206</v>
+      </c>
+      <c r="I12" t="s">
+        <v>218</v>
+      </c>
+      <c r="J12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>144</v>
+      </c>
+      <c r="D13" t="s">
+        <v>155</v>
+      </c>
+      <c r="E13" t="s">
+        <v>168</v>
+      </c>
+      <c r="F13" t="s">
+        <v>181</v>
+      </c>
+      <c r="G13" t="s">
+        <v>194</v>
+      </c>
+      <c r="H13" t="s">
+        <v>168</v>
+      </c>
+      <c r="I13" t="s">
+        <v>219</v>
+      </c>
+      <c r="J13" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>145</v>
+      </c>
+      <c r="D14" t="s">
+        <v>156</v>
+      </c>
+      <c r="E14" t="s">
+        <v>169</v>
+      </c>
+      <c r="F14" t="s">
+        <v>182</v>
+      </c>
+      <c r="G14" t="s">
+        <v>195</v>
+      </c>
+      <c r="H14" t="s">
+        <v>207</v>
+      </c>
+      <c r="I14" t="s">
+        <v>220</v>
+      </c>
+      <c r="J14" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -2100,7 +2577,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2140,31 +2617,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>183</v>
+        <v>236</v>
       </c>
       <c r="D2" t="s">
-        <v>191</v>
+        <v>246</v>
       </c>
       <c r="E2" t="s">
-        <v>201</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="G2" t="s">
-        <v>220</v>
+        <v>284</v>
       </c>
       <c r="H2" t="s">
-        <v>229</v>
+        <v>297</v>
       </c>
       <c r="I2" t="s">
-        <v>239</v>
+        <v>308</v>
       </c>
       <c r="J2" t="s">
-        <v>248</v>
+        <v>321</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2172,31 +2649,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>234</v>
       </c>
       <c r="C3" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="D3" t="s">
-        <v>192</v>
+        <v>247</v>
       </c>
       <c r="E3" t="s">
-        <v>202</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>212</v>
+        <v>273</v>
       </c>
       <c r="G3" t="s">
-        <v>36</v>
+        <v>285</v>
       </c>
       <c r="H3" t="s">
-        <v>230</v>
+        <v>298</v>
       </c>
       <c r="I3" t="s">
-        <v>240</v>
+        <v>309</v>
       </c>
       <c r="J3" t="s">
-        <v>249</v>
+        <v>322</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2204,31 +2681,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
+        <v>235</v>
       </c>
       <c r="C4" t="s">
-        <v>185</v>
+        <v>238</v>
       </c>
       <c r="D4" t="s">
-        <v>193</v>
+        <v>248</v>
       </c>
       <c r="E4" t="s">
-        <v>203</v>
+        <v>261</v>
       </c>
       <c r="F4" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="G4" t="s">
-        <v>221</v>
+        <v>286</v>
       </c>
       <c r="H4" t="s">
-        <v>231</v>
+        <v>286</v>
       </c>
       <c r="I4" t="s">
-        <v>163</v>
+        <v>310</v>
       </c>
       <c r="J4" t="s">
-        <v>250</v>
+        <v>323</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2236,31 +2713,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>186</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>194</v>
+        <v>249</v>
       </c>
       <c r="E5" t="s">
-        <v>204</v>
+        <v>262</v>
       </c>
       <c r="F5" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="G5" t="s">
-        <v>222</v>
+        <v>287</v>
       </c>
       <c r="H5" t="s">
-        <v>232</v>
+        <v>299</v>
       </c>
       <c r="I5" t="s">
-        <v>241</v>
+        <v>311</v>
       </c>
       <c r="J5" t="s">
-        <v>251</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2268,31 +2745,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>181</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>187</v>
+        <v>239</v>
       </c>
       <c r="D6" t="s">
-        <v>195</v>
+        <v>250</v>
       </c>
       <c r="E6" t="s">
-        <v>205</v>
+        <v>263</v>
       </c>
       <c r="F6" t="s">
-        <v>215</v>
+        <v>276</v>
       </c>
       <c r="G6" t="s">
-        <v>223</v>
+        <v>288</v>
       </c>
       <c r="H6" t="s">
-        <v>233</v>
+        <v>300</v>
       </c>
       <c r="I6" t="s">
-        <v>242</v>
+        <v>312</v>
       </c>
       <c r="J6" t="s">
-        <v>252</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2300,31 +2777,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>188</v>
+        <v>125</v>
       </c>
       <c r="D7" t="s">
-        <v>196</v>
+        <v>251</v>
       </c>
       <c r="E7" t="s">
-        <v>206</v>
+        <v>264</v>
       </c>
       <c r="F7" t="s">
-        <v>216</v>
+        <v>277</v>
       </c>
       <c r="G7" t="s">
-        <v>224</v>
+        <v>289</v>
       </c>
       <c r="H7" t="s">
-        <v>234</v>
+        <v>301</v>
       </c>
       <c r="I7" t="s">
-        <v>243</v>
+        <v>313</v>
       </c>
       <c r="J7" t="s">
-        <v>253</v>
+        <v>326</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2332,31 +2809,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>189</v>
+        <v>240</v>
       </c>
       <c r="D8" t="s">
-        <v>197</v>
+        <v>252</v>
       </c>
       <c r="E8" t="s">
-        <v>207</v>
+        <v>265</v>
       </c>
       <c r="F8" t="s">
-        <v>217</v>
+        <v>278</v>
       </c>
       <c r="G8" t="s">
-        <v>225</v>
+        <v>290</v>
       </c>
       <c r="H8" t="s">
-        <v>235</v>
+        <v>302</v>
       </c>
       <c r="I8" t="s">
-        <v>244</v>
+        <v>314</v>
       </c>
       <c r="J8" t="s">
-        <v>254</v>
+        <v>327</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2364,31 +2841,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>182</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>190</v>
+        <v>241</v>
       </c>
       <c r="D9" t="s">
-        <v>198</v>
+        <v>253</v>
       </c>
       <c r="E9" t="s">
-        <v>208</v>
+        <v>266</v>
       </c>
       <c r="F9" t="s">
-        <v>218</v>
+        <v>279</v>
       </c>
       <c r="G9" t="s">
-        <v>226</v>
+        <v>291</v>
       </c>
       <c r="H9" t="s">
-        <v>236</v>
+        <v>303</v>
       </c>
       <c r="I9" t="s">
-        <v>245</v>
+        <v>315</v>
       </c>
       <c r="J9" t="s">
-        <v>255</v>
+        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2396,31 +2873,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>242</v>
       </c>
       <c r="D10" t="s">
-        <v>199</v>
+        <v>254</v>
       </c>
       <c r="E10" t="s">
-        <v>209</v>
+        <v>267</v>
       </c>
       <c r="F10" t="s">
-        <v>219</v>
+        <v>280</v>
       </c>
       <c r="G10" t="s">
-        <v>227</v>
+        <v>292</v>
       </c>
       <c r="H10" t="s">
-        <v>237</v>
+        <v>304</v>
       </c>
       <c r="I10" t="s">
-        <v>246</v>
+        <v>316</v>
       </c>
       <c r="J10" t="s">
-        <v>256</v>
+        <v>329</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2428,31 +2905,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>200</v>
+        <v>255</v>
       </c>
       <c r="E11" t="s">
-        <v>210</v>
+        <v>268</v>
       </c>
       <c r="F11" t="s">
-        <v>64</v>
+        <v>281</v>
       </c>
       <c r="G11" t="s">
-        <v>228</v>
+        <v>293</v>
       </c>
       <c r="H11" t="s">
-        <v>238</v>
+        <v>305</v>
       </c>
       <c r="I11" t="s">
-        <v>247</v>
+        <v>317</v>
       </c>
       <c r="J11" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>243</v>
+      </c>
+      <c r="D12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" t="s">
+        <v>269</v>
+      </c>
+      <c r="F12" t="s">
+        <v>282</v>
+      </c>
+      <c r="G12" t="s">
+        <v>294</v>
+      </c>
+      <c r="H12" t="s">
+        <v>306</v>
+      </c>
+      <c r="I12" t="s">
+        <v>318</v>
+      </c>
+      <c r="J12" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>244</v>
+      </c>
+      <c r="D13" t="s">
         <v>257</v>
+      </c>
+      <c r="E13" t="s">
+        <v>270</v>
+      </c>
+      <c r="F13" t="s">
+        <v>270</v>
+      </c>
+      <c r="G13" t="s">
+        <v>295</v>
+      </c>
+      <c r="H13" t="s">
+        <v>226</v>
+      </c>
+      <c r="I13" t="s">
+        <v>319</v>
+      </c>
+      <c r="J13" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>245</v>
+      </c>
+      <c r="D14" t="s">
+        <v>258</v>
+      </c>
+      <c r="E14" t="s">
+        <v>271</v>
+      </c>
+      <c r="F14" t="s">
+        <v>283</v>
+      </c>
+      <c r="G14" t="s">
+        <v>296</v>
+      </c>
+      <c r="H14" t="s">
+        <v>307</v>
+      </c>
+      <c r="I14" t="s">
+        <v>320</v>
+      </c>
+      <c r="J14" t="s">
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2462,7 +3035,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2502,31 +3075,31 @@
         <v>9</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>262</v>
+        <v>336</v>
       </c>
       <c r="D2" t="s">
-        <v>269</v>
+        <v>347</v>
       </c>
       <c r="E2" t="s">
-        <v>278</v>
+        <v>358</v>
       </c>
       <c r="F2" t="s">
-        <v>48</v>
+        <v>369</v>
       </c>
       <c r="G2" t="s">
-        <v>296</v>
+        <v>381</v>
       </c>
       <c r="H2" t="s">
-        <v>306</v>
+        <v>394</v>
       </c>
       <c r="I2" t="s">
-        <v>315</v>
+        <v>406</v>
       </c>
       <c r="J2" t="s">
-        <v>324</v>
+        <v>418</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -2534,31 +3107,31 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>334</v>
       </c>
       <c r="C3" t="s">
-        <v>263</v>
+        <v>337</v>
       </c>
       <c r="D3" t="s">
-        <v>212</v>
+        <v>348</v>
       </c>
       <c r="E3" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F3" t="s">
-        <v>288</v>
+        <v>370</v>
       </c>
       <c r="G3" t="s">
-        <v>297</v>
+        <v>382</v>
       </c>
       <c r="H3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="I3" t="s">
-        <v>316</v>
+        <v>407</v>
       </c>
       <c r="J3" t="s">
-        <v>325</v>
+        <v>285</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -2566,31 +3139,31 @@
         <v>11</v>
       </c>
       <c r="B4" t="s">
-        <v>258</v>
+        <v>335</v>
       </c>
       <c r="C4" t="s">
-        <v>57</v>
+        <v>338</v>
       </c>
       <c r="D4" t="s">
-        <v>270</v>
+        <v>194</v>
       </c>
       <c r="E4" t="s">
-        <v>280</v>
+        <v>359</v>
       </c>
       <c r="F4" t="s">
-        <v>289</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
-        <v>298</v>
+        <v>383</v>
       </c>
       <c r="H4" t="s">
-        <v>308</v>
+        <v>395</v>
       </c>
       <c r="I4" t="s">
-        <v>317</v>
+        <v>408</v>
       </c>
       <c r="J4" t="s">
-        <v>326</v>
+        <v>194</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -2598,31 +3171,31 @@
         <v>12</v>
       </c>
       <c r="B5" t="s">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="C5" t="s">
-        <v>264</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
-        <v>271</v>
+        <v>349</v>
       </c>
       <c r="E5" t="s">
-        <v>281</v>
+        <v>360</v>
       </c>
       <c r="F5" t="s">
-        <v>290</v>
+        <v>371</v>
       </c>
       <c r="G5" t="s">
-        <v>299</v>
+        <v>384</v>
       </c>
       <c r="H5" t="s">
-        <v>309</v>
+        <v>396</v>
       </c>
       <c r="I5" t="s">
-        <v>318</v>
+        <v>409</v>
       </c>
       <c r="J5" t="s">
-        <v>327</v>
+        <v>419</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -2630,31 +3203,31 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>259</v>
+        <v>25</v>
       </c>
       <c r="C6" t="s">
-        <v>265</v>
+        <v>339</v>
       </c>
       <c r="D6" t="s">
-        <v>272</v>
+        <v>350</v>
       </c>
       <c r="E6" t="s">
-        <v>282</v>
+        <v>361</v>
       </c>
       <c r="F6" t="s">
-        <v>291</v>
+        <v>372</v>
       </c>
       <c r="G6" t="s">
-        <v>300</v>
+        <v>385</v>
       </c>
       <c r="H6" t="s">
-        <v>310</v>
+        <v>397</v>
       </c>
       <c r="I6" t="s">
-        <v>319</v>
+        <v>410</v>
       </c>
       <c r="J6" t="s">
-        <v>328</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -2662,31 +3235,31 @@
         <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>266</v>
+        <v>340</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>351</v>
       </c>
       <c r="E7" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="F7" t="s">
-        <v>292</v>
+        <v>373</v>
       </c>
       <c r="G7" t="s">
-        <v>301</v>
+        <v>386</v>
       </c>
       <c r="H7" t="s">
-        <v>266</v>
+        <v>398</v>
       </c>
       <c r="I7" t="s">
-        <v>320</v>
+        <v>411</v>
       </c>
       <c r="J7" t="s">
-        <v>329</v>
+        <v>421</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -2694,31 +3267,31 @@
         <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>267</v>
+        <v>341</v>
       </c>
       <c r="D8" t="s">
-        <v>274</v>
+        <v>352</v>
       </c>
       <c r="E8" t="s">
-        <v>284</v>
+        <v>362</v>
       </c>
       <c r="F8" t="s">
-        <v>293</v>
+        <v>374</v>
       </c>
       <c r="G8" t="s">
-        <v>302</v>
+        <v>387</v>
       </c>
       <c r="H8" t="s">
-        <v>311</v>
+        <v>399</v>
       </c>
       <c r="I8" t="s">
-        <v>321</v>
+        <v>412</v>
       </c>
       <c r="J8" t="s">
-        <v>330</v>
+        <v>422</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -2726,31 +3299,31 @@
         <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>260</v>
+        <v>25</v>
       </c>
       <c r="C9" t="s">
-        <v>268</v>
+        <v>342</v>
       </c>
       <c r="D9" t="s">
-        <v>275</v>
+        <v>353</v>
       </c>
       <c r="E9" t="s">
-        <v>285</v>
+        <v>363</v>
       </c>
       <c r="F9" t="s">
-        <v>294</v>
+        <v>375</v>
       </c>
       <c r="G9" t="s">
-        <v>303</v>
+        <v>388</v>
       </c>
       <c r="H9" t="s">
-        <v>312</v>
+        <v>400</v>
       </c>
       <c r="I9" t="s">
-        <v>322</v>
+        <v>413</v>
       </c>
       <c r="J9" t="s">
-        <v>331</v>
+        <v>423</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -2758,31 +3331,31 @@
         <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C10" t="s">
-        <v>169</v>
+        <v>343</v>
       </c>
       <c r="D10" t="s">
-        <v>276</v>
+        <v>354</v>
       </c>
       <c r="E10" t="s">
-        <v>286</v>
+        <v>364</v>
       </c>
       <c r="F10" t="s">
-        <v>295</v>
+        <v>376</v>
       </c>
       <c r="G10" t="s">
-        <v>304</v>
+        <v>389</v>
       </c>
       <c r="H10" t="s">
-        <v>313</v>
+        <v>401</v>
       </c>
       <c r="I10" t="s">
-        <v>276</v>
+        <v>414</v>
       </c>
       <c r="J10" t="s">
-        <v>332</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -2790,31 +3363,127 @@
         <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>261</v>
+        <v>22</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D11" t="s">
-        <v>277</v>
+        <v>68</v>
       </c>
       <c r="E11" t="s">
-        <v>287</v>
+        <v>365</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>377</v>
       </c>
       <c r="G11" t="s">
-        <v>305</v>
+        <v>390</v>
       </c>
       <c r="H11" t="s">
-        <v>314</v>
+        <v>402</v>
       </c>
       <c r="I11" t="s">
-        <v>323</v>
+        <v>415</v>
       </c>
       <c r="J11" t="s">
-        <v>333</v>
+        <v>425</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" t="s">
+        <v>22</v>
+      </c>
+      <c r="C12" t="s">
+        <v>344</v>
+      </c>
+      <c r="D12" t="s">
+        <v>355</v>
+      </c>
+      <c r="E12" t="s">
+        <v>366</v>
+      </c>
+      <c r="F12" t="s">
+        <v>378</v>
+      </c>
+      <c r="G12" t="s">
+        <v>391</v>
+      </c>
+      <c r="H12" t="s">
+        <v>403</v>
+      </c>
+      <c r="I12" t="s">
+        <v>416</v>
+      </c>
+      <c r="J12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>345</v>
+      </c>
+      <c r="D13" t="s">
+        <v>356</v>
+      </c>
+      <c r="E13" t="s">
+        <v>367</v>
+      </c>
+      <c r="F13" t="s">
+        <v>379</v>
+      </c>
+      <c r="G13" t="s">
+        <v>392</v>
+      </c>
+      <c r="H13" t="s">
+        <v>404</v>
+      </c>
+      <c r="I13" t="s">
+        <v>392</v>
+      </c>
+      <c r="J13" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>346</v>
+      </c>
+      <c r="D14" t="s">
+        <v>357</v>
+      </c>
+      <c r="E14" t="s">
+        <v>368</v>
+      </c>
+      <c r="F14" t="s">
+        <v>380</v>
+      </c>
+      <c r="G14" t="s">
+        <v>393</v>
+      </c>
+      <c r="H14" t="s">
+        <v>405</v>
+      </c>
+      <c r="I14" t="s">
+        <v>417</v>
+      </c>
+      <c r="J14" t="s">
+        <v>428</v>
       </c>
     </row>
   </sheetData>
